--- a/ASHRAE901_ApartmentHighRise_STD2019_SanDiegoTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_SanDiegoTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1022.92</t>
+          <t>2198.07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>371.49</t>
+          <t>1733.39</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>414.66</t>
+          <t>555.11</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>371.49</t>
+          <t>1355.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>370.25</t>
+          <t>1123.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>370.26</t>
+          <t>1113.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1021.15</t>
+          <t>1533.85</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1021.21</t>
+          <t>1563.61</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1827.34</t>
+          <t>2669.59</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1355.88</t>
+          <t>2245.38</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1517.02</t>
+          <t>2249.27</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1071.76</t>
+          <t>1778.74</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>857.22</t>
+          <t>1446.36</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>849.60</t>
+          <t>1435.31</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1168.05</t>
+          <t>1761.09</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1164.35</t>
+          <t>1759.68</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1833.32</t>
+          <t>2653.44</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1361.12</t>
+          <t>2257.58</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1502.92</t>
+          <t>2202.97</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1077.85</t>
+          <t>1791.98</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>860.54</t>
+          <t>1457.80</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>852.93</t>
+          <t>1446.82</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1198.08</t>
+          <t>1751.09</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1193.28</t>
+          <t>1780.30</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>1834.45</t>
+          <t>2644.40</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1355.58</t>
+          <t>2268.30</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1501.65</t>
+          <t>2131.71</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1075.64</t>
+          <t>1799.92</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>857.87</t>
+          <t>1464.45</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>851.93</t>
+          <t>1453.54</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1203.13</t>
+          <t>1739.27</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1198.32</t>
+          <t>1688.99</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>1832.85</t>
+          <t>2635.40</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>1347.74</t>
+          <t>2274.02</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>1502.15</t>
+          <t>2074.55</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>905.92</t>
+          <t>1805.41</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>853.45</t>
+          <t>1467.93</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>847.67</t>
+          <t>1457.13</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1194.36</t>
+          <t>1604.92</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1196.85</t>
+          <t>1632.31</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>1691.46</t>
+          <t>2629.62</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>1127.48</t>
+          <t>2282.64</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>1497.97</t>
+          <t>2075.13</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>634.07</t>
+          <t>1811.94</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>683.16</t>
+          <t>1470.11</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>622.84</t>
+          <t>1459.21</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1176.44</t>
+          <t>1601.39</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1171.47</t>
+          <t>1629.17</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>1514.12</t>
+          <t>2625.65</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>881.81</t>
+          <t>2290.10</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>1307.63</t>
+          <t>2076.78</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>383.55</t>
+          <t>1814.60</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>435.47</t>
+          <t>1472.33</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>373.52</t>
+          <t>1461.40</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1175.73</t>
+          <t>1618.10</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1170.82</t>
+          <t>1647.21</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>1471.47</t>
+          <t>2625.08</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>708.71</t>
+          <t>2300.76</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>1197.67</t>
+          <t>2083.36</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>366.81</t>
+          <t>1823.11</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>370.17</t>
+          <t>1481.13</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>370.17</t>
+          <t>1470.43</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1179.29</t>
+          <t>1626.22</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1174.25</t>
+          <t>1652.09</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>1905.13</t>
+          <t>2688.82</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>1056.62</t>
+          <t>2379.59</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>1538.98</t>
+          <t>2162.69</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>584.47</t>
+          <t>1864.47</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>615.61</t>
+          <t>1556.17</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>561.08</t>
+          <t>1545.34</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1241.42</t>
+          <t>1684.68</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1235.54</t>
+          <t>1675.61</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>2856.47</t>
+          <t>3158.34</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>1632.67</t>
+          <t>2831.50</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>1695.71</t>
+          <t>2580.16</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>1252.95</t>
+          <t>2240.23</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1066.85</t>
+          <t>1835.99</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1070.21</t>
+          <t>1835.31</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2018.06</t>
+          <t>2319.47</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>1944.91</t>
+          <t>2314.74</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>344.27</t>
+          <t>2151.41</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>343.77</t>
+          <t>1905.82</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>304.10</t>
+          <t>609.05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>344.33</t>
+          <t>1501.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>350.91</t>
+          <t>1261.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>350.73</t>
+          <t>1260.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>356.57</t>
+          <t>1434.87</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>354.74</t>
+          <t>1470.52</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>346.48</t>
+          <t>2611.97</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>343.91</t>
+          <t>2415.27</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>342.64</t>
+          <t>2206.42</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>343.83</t>
+          <t>1882.51</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>361.05</t>
+          <t>1445.30</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>360.89</t>
+          <t>1432.07</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>366.29</t>
+          <t>1727.70</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>365.93</t>
+          <t>1721.12</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>382.31</t>
+          <t>2596.28</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>346.27</t>
+          <t>2511.71</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>348.25</t>
+          <t>2137.43</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>346.19</t>
+          <t>1924.99</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>363.83</t>
+          <t>1455.02</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>363.65</t>
+          <t>1445.39</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>368.92</t>
+          <t>1730.34</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>368.85</t>
+          <t>1751.10</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>348.33</t>
+          <t>2587.30</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>346.28</t>
+          <t>2476.11</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>348.38</t>
+          <t>2097.47</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>346.19</t>
+          <t>1909.25</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>363.73</t>
+          <t>1456.46</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>363.56</t>
+          <t>1444.84</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>368.50</t>
+          <t>1696.01</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>368.41</t>
+          <t>1698.58</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>347.54</t>
+          <t>2577.88</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>345.63</t>
+          <t>2407.69</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>347.54</t>
+          <t>2094.03</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>345.59</t>
+          <t>1881.03</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>362.75</t>
+          <t>1453.29</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>362.61</t>
+          <t>1442.77</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>367.11</t>
+          <t>1665.03</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>366.98</t>
+          <t>1691.26</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>346.68</t>
+          <t>2571.13</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>344.94</t>
+          <t>2402.42</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>346.62</t>
+          <t>2088.47</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>344.92</t>
+          <t>1829.89</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>361.66</t>
+          <t>1451.80</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>361.55</t>
+          <t>1440.06</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>365.59</t>
+          <t>1661.05</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>365.43</t>
+          <t>1686.50</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>345.78</t>
+          <t>2564.59</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>344.23</t>
+          <t>2399.95</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>345.72</t>
+          <t>2085.10</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>344.27</t>
+          <t>1826.20</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>360.59</t>
+          <t>1440.86</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>360.53</t>
+          <t>1431.07</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>364.01</t>
+          <t>1612.39</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>363.85</t>
+          <t>1633.96</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>344.54</t>
+          <t>2561.88</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>343.17</t>
+          <t>2402.57</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>344.56</t>
+          <t>2088.41</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>343.28</t>
+          <t>1831.68</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>359.12</t>
+          <t>1448.25</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>359.08</t>
+          <t>1438.51</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>361.88</t>
+          <t>1620.16</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>361.75</t>
+          <t>1635.83</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>342.21</t>
+          <t>2630.61</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>340.89</t>
+          <t>2471.54</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>342.18</t>
+          <t>2173.25</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>342.61</t>
+          <t>1871.35</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>355.76</t>
+          <t>1529.03</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>355.74</t>
+          <t>1517.36</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>357.81</t>
+          <t>1693.93</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>357.73</t>
+          <t>1682.99</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>343.89</t>
+          <t>3244.24</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>343.81</t>
+          <t>2975.68</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>343.89</t>
+          <t>2750.40</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>343.82</t>
+          <t>2306.18</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>343.01</t>
+          <t>2012.26</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>343.02</t>
+          <t>2006.97</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>1027.61</t>
+          <t>2272.90</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>1025.33</t>
+          <t>2279.10</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1326.63</t>
+          <t>2125.21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1174.58</t>
+          <t>1949.60</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>321.08</t>
+          <t>471.63</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>938.54</t>
+          <t>1542.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>899.74</t>
+          <t>1323.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>894.29</t>
+          <t>1313.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>924.54</t>
+          <t>1515.45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>926.80</t>
+          <t>1511.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1801.19</t>
+          <t>2564.54</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1593.09</t>
+          <t>2384.71</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1436.56</t>
+          <t>2148.73</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1283.66</t>
+          <t>1863.83</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1037.55</t>
+          <t>1511.41</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1030.42</t>
+          <t>1500.50</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1060.72</t>
+          <t>1686.92</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1058.76</t>
+          <t>1684.17</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1815.76</t>
+          <t>2547.94</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1619.63</t>
+          <t>2374.84</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1433.70</t>
+          <t>2106.08</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1296.74</t>
+          <t>1865.60</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1044.06</t>
+          <t>1510.95</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1037.03</t>
+          <t>1497.40</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1078.17</t>
+          <t>1673.24</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1081.63</t>
+          <t>1705.01</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>1813.36</t>
+          <t>2544.61</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>1620.06</t>
+          <t>2370.91</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1430.90</t>
+          <t>2096.19</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1299.97</t>
+          <t>1863.88</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1045.54</t>
+          <t>1488.93</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1040.47</t>
+          <t>1477.14</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1080.10</t>
+          <t>1663.42</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1085.50</t>
+          <t>1694.24</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>1805.71</t>
+          <t>2535.57</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>1617.78</t>
+          <t>2365.23</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1419.04</t>
+          <t>2086.73</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1297.87</t>
+          <t>1840.29</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1044.65</t>
+          <t>1472.66</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1039.69</t>
+          <t>1460.13</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1065.09</t>
+          <t>1525.84</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1070.06</t>
+          <t>1556.95</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>1791.59</t>
+          <t>2526.76</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>1610.05</t>
+          <t>2361.30</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>1407.90</t>
+          <t>2085.11</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1270.74</t>
+          <t>1836.30</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1042.96</t>
+          <t>1472.91</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1038.11</t>
+          <t>1460.70</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1061.66</t>
+          <t>1525.47</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1057.96</t>
+          <t>1557.13</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>1785.68</t>
+          <t>2519.41</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>1594.59</t>
+          <t>2361.17</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>1403.45</t>
+          <t>2085.34</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1220.77</t>
+          <t>1838.31</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1042.28</t>
+          <t>1474.17</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1037.55</t>
+          <t>1462.16</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1060.35</t>
+          <t>1525.87</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1056.71</t>
+          <t>1558.32</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>1790.46</t>
+          <t>2515.33</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>1599.61</t>
+          <t>2366.09</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>1409.02</t>
+          <t>2080.60</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1227.20</t>
+          <t>1844.11</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1046.64</t>
+          <t>1480.68</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1042.03</t>
+          <t>1468.75</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1063.76</t>
+          <t>1535.10</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1060.89</t>
+          <t>1563.92</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>1877.62</t>
+          <t>2577.13</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>1694.71</t>
+          <t>2433.83</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>1470.21</t>
+          <t>2168.72</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>1281.77</t>
+          <t>1879.97</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1087.13</t>
+          <t>1544.90</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1082.37</t>
+          <t>1532.36</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1133.62</t>
+          <t>1596.33</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1138.09</t>
+          <t>1588.43</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>2442.45</t>
+          <t>3184.97</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>2231.93</t>
+          <t>2995.67</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2054.69</t>
+          <t>2758.84</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>1706.87</t>
+          <t>2271.80</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>1294.14</t>
+          <t>1922.75</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>1304.62</t>
+          <t>1920.37</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>1606.93</t>
+          <t>2213.62</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>1612.46</t>
+          <t>2216.44</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1439.05</t>
+          <t>1953.57</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1418.12</t>
+          <t>1875.88</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>274.85</t>
+          <t>774.76</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1130.72</t>
+          <t>1574.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>963.36</t>
+          <t>1278.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>956.82</t>
+          <t>1269.22</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>981.46</t>
+          <t>1449.28</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>982.89</t>
+          <t>1448.26</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1775.84</t>
+          <t>2467.58</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1722.52</t>
+          <t>2382.52</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1458.42</t>
+          <t>2077.64</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1363.49</t>
+          <t>1899.36</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1088.20</t>
+          <t>1524.41</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1080.45</t>
+          <t>1514.52</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1104.27</t>
+          <t>1606.27</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1103.75</t>
+          <t>1603.17</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>1764.38</t>
+          <t>2455.59</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1716.69</t>
+          <t>2336.41</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1434.99</t>
+          <t>2047.61</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1368.78</t>
+          <t>1896.08</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1089.71</t>
+          <t>1520.56</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1086.96</t>
+          <t>1513.45</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1104.97</t>
+          <t>1601.15</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1118.60</t>
+          <t>1629.15</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>1761.96</t>
+          <t>2450.92</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>1715.54</t>
+          <t>2339.89</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1425.34</t>
+          <t>2039.86</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1368.74</t>
+          <t>1896.14</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1086.93</t>
+          <t>1416.36</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1094.15</t>
+          <t>1510.29</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1108.93</t>
+          <t>1602.06</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1122.38</t>
+          <t>1630.16</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>1760.53</t>
+          <t>2429.24</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>1714.69</t>
+          <t>2343.11</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1500.95</t>
+          <t>2036.61</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1348.73</t>
+          <t>1892.25</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1134.23</t>
+          <t>1538.10</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1092.83</t>
+          <t>1528.32</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1150.23</t>
+          <t>1594.79</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1143.79</t>
+          <t>1625.00</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>1835.61</t>
+          <t>2431.30</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>1713.96</t>
+          <t>2346.05</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>1493.85</t>
+          <t>2029.75</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1270.12</t>
+          <t>1887.37</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1127.50</t>
+          <t>1540.03</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1123.46</t>
+          <t>1530.27</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1143.11</t>
+          <t>1596.20</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1138.35</t>
+          <t>1627.11</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>1828.55</t>
+          <t>2433.89</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>1798.74</t>
+          <t>2349.49</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>1491.08</t>
+          <t>2027.65</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1431.29</t>
+          <t>1883.40</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1124.23</t>
+          <t>1537.91</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1118.42</t>
+          <t>1532.72</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1141.18</t>
+          <t>1598.23</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1136.56</t>
+          <t>1629.86</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>1831.00</t>
+          <t>2442.09</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>1797.62</t>
+          <t>2358.47</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>1493.56</t>
+          <t>2032.05</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1431.39</t>
+          <t>1833.61</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1128.71</t>
+          <t>1513.92</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1122.98</t>
+          <t>1536.84</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1145.29</t>
+          <t>1608.53</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1140.74</t>
+          <t>1636.95</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>1905.59</t>
+          <t>2528.22</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>1872.38</t>
+          <t>2443.21</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>1535.78</t>
+          <t>2124.75</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>1473.19</t>
+          <t>1923.35</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1192.20</t>
+          <t>1503.96</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1186.32</t>
+          <t>1522.92</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1209.38</t>
+          <t>1667.61</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1204.83</t>
+          <t>1661.19</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>2345.13</t>
+          <t>3099.72</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>2238.71</t>
+          <t>2985.24</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>1906.77</t>
+          <t>2628.42</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>1717.14</t>
+          <t>2322.12</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1335.93</t>
+          <t>1862.81</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1347.47</t>
+          <t>1924.79</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>1507.63</t>
+          <t>2114.12</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>1513.29</t>
+          <t>2119.84</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1562.57</t>
+          <t>1933.16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1551.85</t>
+          <t>1879.77</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>328.38</t>
+          <t>923.74</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1194.38</t>
+          <t>1515.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1014.88</t>
+          <t>1258.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1010.70</t>
+          <t>1250.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1019.94</t>
+          <t>1295.89</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1032.92</t>
+          <t>1294.59</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1997.55</t>
+          <t>2392.53</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1966.06</t>
+          <t>2310.33</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1605.55</t>
+          <t>2025.07</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1502.54</t>
+          <t>1835.81</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1165.53</t>
+          <t>1430.83</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1158.61</t>
+          <t>1420.75</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1170.38</t>
+          <t>1466.15</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1172.87</t>
+          <t>1461.94</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1988.86</t>
+          <t>2381.05</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1960.47</t>
+          <t>2305.92</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1572.95</t>
+          <t>1980.40</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1509.36</t>
+          <t>1832.14</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1167.80</t>
+          <t>1426.49</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1160.61</t>
+          <t>1418.37</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1169.27</t>
+          <t>1461.44</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1167.64</t>
+          <t>1492.02</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>1985.17</t>
+          <t>2379.65</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>1957.14</t>
+          <t>2307.36</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>1566.36</t>
+          <t>1972.76</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>1514.54</t>
+          <t>1836.06</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1173.11</t>
+          <t>1429.51</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1167.92</t>
+          <t>1421.45</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1170.64</t>
+          <t>1462.05</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1168.09</t>
+          <t>1492.87</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>1981.97</t>
+          <t>2380.84</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>1954.05</t>
+          <t>2309.26</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1567.55</t>
+          <t>1972.80</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>1516.25</t>
+          <t>1836.79</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1175.49</t>
+          <t>1432.76</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1170.14</t>
+          <t>1422.44</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1166.09</t>
+          <t>1464.85</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1165.99</t>
+          <t>1496.32</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>1971.70</t>
+          <t>2382.19</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>1950.73</t>
+          <t>2311.08</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>1565.37</t>
+          <t>1974.20</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>1516.40</t>
+          <t>1837.52</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1175.00</t>
+          <t>1435.73</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1169.33</t>
+          <t>1425.45</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1164.98</t>
+          <t>1467.48</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1160.97</t>
+          <t>1499.68</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>1971.82</t>
+          <t>2384.30</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>1952.00</t>
+          <t>2313.53</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>1566.58</t>
+          <t>1976.46</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1517.97</t>
+          <t>1839.10</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1157.92</t>
+          <t>1439.21</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1148.52</t>
+          <t>1428.96</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1164.73</t>
+          <t>1470.60</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1160.49</t>
+          <t>1503.58</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>1977.13</t>
+          <t>2393.23</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>1958.19</t>
+          <t>2321.37</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>1572.91</t>
+          <t>1983.61</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>1524.11</t>
+          <t>1845.99</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1164.73</t>
+          <t>1448.37</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1159.31</t>
+          <t>1438.16</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1168.03</t>
+          <t>1482.44</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1163.60</t>
+          <t>1512.11</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2052.46</t>
+          <t>2469.00</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2028.66</t>
+          <t>2392.79</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>1609.99</t>
+          <t>2079.49</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>1560.84</t>
+          <t>1881.43</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1227.61</t>
+          <t>1516.19</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1221.74</t>
+          <t>1505.80</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1212.40</t>
+          <t>1545.57</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1211.33</t>
+          <t>1538.75</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>2541.15</t>
+          <t>2955.09</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>2504.15</t>
+          <t>2845.13</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2124.58</t>
+          <t>2598.27</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>1970.81</t>
+          <t>2314.53</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>1510.20</t>
+          <t>1820.07</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>1518.11</t>
+          <t>1820.14</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>1657.13</t>
+          <t>2057.64</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>1660.88</t>
+          <t>2064.97</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1173.17</t>
+          <t>1799.02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1192.28</t>
+          <t>1754.96</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>678.95</t>
+          <t>1125.22</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>941.05</t>
+          <t>1445.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>813.55</t>
+          <t>1201.09</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>818.03</t>
+          <t>1203.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>815.71</t>
+          <t>1219.39</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>863.34</t>
+          <t>1232.23</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1575.46</t>
+          <t>2232.19</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1561.38</t>
+          <t>2159.41</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1306.51</t>
+          <t>1889.95</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1214.09</t>
+          <t>1741.93</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>961.81</t>
+          <t>1363.78</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>961.97</t>
+          <t>1365.35</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>967.11</t>
+          <t>1380.61</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>984.89</t>
+          <t>1392.62</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1559.38</t>
+          <t>2218.19</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1548.88</t>
+          <t>2154.45</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1267.48</t>
+          <t>1845.73</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1213.68</t>
+          <t>1737.04</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>960.12</t>
+          <t>1359.99</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>962.94</t>
+          <t>1361.46</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>964.50</t>
+          <t>1371.83</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>970.53</t>
+          <t>1409.05</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>1554.95</t>
+          <t>2217.27</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>1545.63</t>
+          <t>2156.89</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1258.36</t>
+          <t>1837.94</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1217.44</t>
+          <t>1740.41</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>959.16</t>
+          <t>1362.68</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>962.16</t>
+          <t>1364.14</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>963.52</t>
+          <t>1372.64</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>966.57</t>
+          <t>1408.71</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>1552.47</t>
+          <t>2218.33</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>1543.77</t>
+          <t>2160.13</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1258.58</t>
+          <t>1838.00</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1218.09</t>
+          <t>1742.71</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>956.80</t>
+          <t>1366.45</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>958.83</t>
+          <t>1367.92</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>963.39</t>
+          <t>1375.18</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>963.77</t>
+          <t>1411.35</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>1550.38</t>
+          <t>2219.72</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>1542.15</t>
+          <t>2163.24</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1258.13</t>
+          <t>1839.76</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1218.26</t>
+          <t>1745.52</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>956.47</t>
+          <t>1370.13</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>955.87</t>
+          <t>1371.60</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>960.83</t>
+          <t>1377.82</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>962.25</t>
+          <t>1414.50</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>1548.49</t>
+          <t>2221.66</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>1540.59</t>
+          <t>2166.60</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1257.41</t>
+          <t>1841.71</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1217.70</t>
+          <t>1748.73</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>954.18</t>
+          <t>1373.74</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>954.34</t>
+          <t>1375.11</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>956.83</t>
+          <t>1380.23</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>960.30</t>
+          <t>1417.61</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>1549.77</t>
+          <t>2228.18</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>1543.47</t>
+          <t>2174.95</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1257.51</t>
+          <t>1845.29</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1218.23</t>
+          <t>1754.55</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>952.16</t>
+          <t>1380.74</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>954.27</t>
+          <t>1381.93</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>952.93</t>
+          <t>1388.72</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>954.83</t>
+          <t>1422.86</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>1609.90</t>
+          <t>2297.76</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>1607.60</t>
+          <t>2242.20</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>1270.53</t>
+          <t>1923.92</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>1233.39</t>
+          <t>1781.01</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>974.63</t>
+          <t>1436.86</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>974.51</t>
+          <t>1436.56</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>973.16</t>
+          <t>1437.32</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>973.95</t>
+          <t>1435.32</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2090.41</t>
+          <t>2719.13</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>2086.92</t>
+          <t>2636.21</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>1649.31</t>
+          <t>2326.96</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>1563.10</t>
+          <t>2102.85</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1155.47</t>
+          <t>1699.17</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1175.27</t>
+          <t>1702.93</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1284.78</t>
+          <t>1886.03</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1291.71</t>
+          <t>1893.19</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1220.25</t>
+          <t>1757.46</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1225.91</t>
+          <t>1753.41</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>736.39</t>
+          <t>1560.70</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1032.78</t>
+          <t>1451.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>833.23</t>
+          <t>1204.02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>837.47</t>
+          <t>1206.84</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>833.09</t>
+          <t>1198.37</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>853.57</t>
+          <t>1209.18</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1632.07</t>
+          <t>2165.87</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1612.66</t>
+          <t>2145.32</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1423.13</t>
+          <t>1850.83</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1319.43</t>
+          <t>1738.15</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>981.97</t>
+          <t>1360.96</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>985.17</t>
+          <t>1362.91</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>983.39</t>
+          <t>1348.37</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>995.58</t>
+          <t>1356.31</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1613.44</t>
+          <t>2157.94</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1598.34</t>
+          <t>2136.65</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1376.19</t>
+          <t>1810.48</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1315.70</t>
+          <t>1727.35</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>977.74</t>
+          <t>1352.05</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>981.27</t>
+          <t>1357.15</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>976.88</t>
+          <t>1336.85</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>984.53</t>
+          <t>1371.88</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>1607.81</t>
+          <t>2157.10</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>1593.75</t>
+          <t>2136.54</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1365.14</t>
+          <t>1802.45</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1318.58</t>
+          <t>1728.24</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>978.60</t>
+          <t>1351.58</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>985.01</t>
+          <t>1357.88</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>979.27</t>
+          <t>1336.93</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>985.50</t>
+          <t>1369.29</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>1604.33</t>
+          <t>2158.23</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>1590.86</t>
+          <t>2137.92</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1365.24</t>
+          <t>1805.21</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1319.14</t>
+          <t>1728.94</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>980.04</t>
+          <t>1354.52</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>986.49</t>
+          <t>1361.31</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>980.33</t>
+          <t>1339.29</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>985.86</t>
+          <t>1371.58</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>1601.61</t>
+          <t>2159.63</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>1588.57</t>
+          <t>2139.46</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1365.13</t>
+          <t>1810.19</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1319.56</t>
+          <t>1730.74</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>981.15</t>
+          <t>1359.80</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>987.62</t>
+          <t>1364.53</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>981.18</t>
+          <t>1341.85</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>986.45</t>
+          <t>1374.61</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>1599.87</t>
+          <t>2165.24</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>1587.18</t>
+          <t>2141.40</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1365.12</t>
+          <t>1813.84</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1319.53</t>
+          <t>1732.00</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>981.75</t>
+          <t>1360.02</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>988.07</t>
+          <t>1367.44</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>981.34</t>
+          <t>1344.15</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>986.37</t>
+          <t>1377.61</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>1602.74</t>
+          <t>2175.12</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>1590.38</t>
+          <t>2147.88</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1366.40</t>
+          <t>1818.91</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>1320.84</t>
+          <t>1735.67</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>984.46</t>
+          <t>1366.33</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>990.24</t>
+          <t>1373.24</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>982.69</t>
+          <t>1352.81</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>987.12</t>
+          <t>1383.38</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>1667.43</t>
+          <t>2237.79</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>1654.97</t>
+          <t>2213.16</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1382.57</t>
+          <t>1894.19</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>1338.21</t>
+          <t>1761.35</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1030.62</t>
+          <t>1420.05</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1034.51</t>
+          <t>1420.91</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1025.70</t>
+          <t>1405.37</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1028.31</t>
+          <t>1401.92</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2139.36</t>
+          <t>2672.89</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>2123.54</t>
+          <t>2596.80</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>1711.80</t>
+          <t>2301.32</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>1607.82</t>
+          <t>2082.09</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1190.63</t>
+          <t>1679.07</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1212.50</t>
+          <t>1683.11</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1306.24</t>
+          <t>1842.76</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1317.50</t>
+          <t>1849.45</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1327.55</t>
+          <t>1778.37</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1319.62</t>
+          <t>1725.57</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>824.81</t>
+          <t>1581.60</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1049.21</t>
+          <t>1418.89</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>851.68</t>
+          <t>1170.79</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>856.70</t>
+          <t>1174.78</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>854.18</t>
+          <t>1203.45</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>873.21</t>
+          <t>1210.78</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1652.56</t>
+          <t>2178.06</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1645.41</t>
+          <t>2116.98</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1426.66</t>
+          <t>1881.08</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1329.04</t>
+          <t>1725.89</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>996.96</t>
+          <t>1336.58</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1001.56</t>
+          <t>1339.56</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1002.01</t>
+          <t>1370.49</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1014.78</t>
+          <t>1377.72</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1627.48</t>
+          <t>2167.04</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1619.42</t>
+          <t>2091.55</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1386.79</t>
+          <t>1848.77</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1324.89</t>
+          <t>1721.62</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>993.06</t>
+          <t>1332.67</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>998.17</t>
+          <t>1336.07</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>996.07</t>
+          <t>1362.00</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1005.58</t>
+          <t>1401.28</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>1618.79</t>
+          <t>2172.09</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>1617.80</t>
+          <t>2098.21</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1377.48</t>
+          <t>1844.15</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1327.24</t>
+          <t>1726.39</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>993.95</t>
+          <t>1335.72</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1001.96</t>
+          <t>1339.21</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>998.48</t>
+          <t>1363.28</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1007.04</t>
+          <t>1401.62</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>1613.51</t>
+          <t>2179.30</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>1618.17</t>
+          <t>2107.52</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1377.45</t>
+          <t>1845.84</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1327.23</t>
+          <t>1729.08</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>995.27</t>
+          <t>1340.04</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1003.33</t>
+          <t>1343.52</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>999.39</t>
+          <t>1366.49</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1007.36</t>
+          <t>1404.88</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>1613.75</t>
+          <t>2186.30</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>1618.55</t>
+          <t>2132.91</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1376.70</t>
+          <t>1848.43</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1327.06</t>
+          <t>1731.93</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>996.21</t>
+          <t>1344.30</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1004.28</t>
+          <t>1347.71</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1000.01</t>
+          <t>1369.85</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1007.71</t>
+          <t>1408.63</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>1613.40</t>
+          <t>2193.33</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>1618.29</t>
+          <t>2138.78</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1375.68</t>
+          <t>1851.07</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1326.32</t>
+          <t>1734.93</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>996.47</t>
+          <t>1348.50</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1004.46</t>
+          <t>1351.77</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>999.75</t>
+          <t>1372.94</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1007.19</t>
+          <t>1412.32</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>1606.28</t>
+          <t>2204.96</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>1607.15</t>
+          <t>2146.77</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>1375.21</t>
+          <t>1855.22</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1326.53</t>
+          <t>1741.09</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>998.39</t>
+          <t>1356.36</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1006.04</t>
+          <t>1359.46</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1000.23</t>
+          <t>1381.92</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1007.15</t>
+          <t>1418.24</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>1663.96</t>
+          <t>2291.37</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>1625.43</t>
+          <t>2219.73</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>1385.40</t>
+          <t>1931.04</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1339.05</t>
+          <t>1765.15</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1040.57</t>
+          <t>1412.78</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1046.73</t>
+          <t>1415.28</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1038.95</t>
+          <t>1432.21</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1044.21</t>
+          <t>1433.35</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2119.94</t>
+          <t>2645.95</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2040.92</t>
+          <t>2548.76</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>1750.78</t>
+          <t>2350.97</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>1572.76</t>
+          <t>2121.79</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1181.01</t>
+          <t>1669.24</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1205.62</t>
+          <t>1680.75</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1342.68</t>
+          <t>1874.02</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1358.76</t>
+          <t>1885.38</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1439.27</t>
+          <t>1948.70</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1440.52</t>
+          <t>1895.99</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>814.91</t>
+          <t>1425.10</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1231.45</t>
+          <t>1523.25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1027.96</t>
+          <t>1273.43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1032.53</t>
+          <t>1268.33</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1035.20</t>
+          <t>1340.46</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1068.89</t>
+          <t>1347.18</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1762.62</t>
+          <t>2400.03</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1745.79</t>
+          <t>2318.35</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1608.25</t>
+          <t>2056.43</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1480.79</t>
+          <t>1826.80</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1168.03</t>
+          <t>1440.01</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1165.86</t>
+          <t>1433.50</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1173.44</t>
+          <t>1499.29</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1181.59</t>
+          <t>1501.93</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>1737.90</t>
+          <t>2386.20</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>1730.43</t>
+          <t>2313.16</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1527.77</t>
+          <t>1993.12</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1462.74</t>
+          <t>1820.60</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1162.63</t>
+          <t>1435.53</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1160.47</t>
+          <t>1427.64</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1158.61</t>
+          <t>1487.62</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1168.81</t>
+          <t>1521.31</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>1733.95</t>
+          <t>2387.68</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>1727.11</t>
+          <t>2315.19</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1508.15</t>
+          <t>1983.46</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1463.12</t>
+          <t>1824.14</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1158.27</t>
+          <t>1437.93</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1164.34</t>
+          <t>1429.85</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1160.69</t>
+          <t>1486.53</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1169.50</t>
+          <t>1519.15</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>1733.41</t>
+          <t>2391.80</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>1726.93</t>
+          <t>2318.10</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1505.51</t>
+          <t>1982.66</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1462.81</t>
+          <t>1825.36</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1159.85</t>
+          <t>1441.38</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1166.04</t>
+          <t>1433.23</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1161.68</t>
+          <t>1487.71</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1164.14</t>
+          <t>1520.35</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>1733.38</t>
+          <t>2396.00</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>1727.05</t>
+          <t>2321.01</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>1504.28</t>
+          <t>1985.19</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1462.96</t>
+          <t>1826.94</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1161.20</t>
+          <t>1444.84</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1167.51</t>
+          <t>1436.68</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1162.73</t>
+          <t>1489.55</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1164.77</t>
+          <t>1522.70</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>1732.79</t>
+          <t>2400.60</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>1726.89</t>
+          <t>2324.54</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>1493.60</t>
+          <t>1989.00</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1462.09</t>
+          <t>1829.41</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1162.22</t>
+          <t>1448.86</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1168.49</t>
+          <t>1440.73</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1163.33</t>
+          <t>1491.95</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1164.92</t>
+          <t>1525.87</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>1732.35</t>
+          <t>2410.74</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>1728.99</t>
+          <t>2333.59</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>1492.05</t>
+          <t>1997.26</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1460.75</t>
+          <t>1837.23</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1165.51</t>
+          <t>1458.65</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1165.63</t>
+          <t>1450.54</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1165.09</t>
+          <t>1501.11</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1166.63</t>
+          <t>1533.19</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>1780.27</t>
+          <t>2488.64</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>1758.02</t>
+          <t>2407.95</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>1496.51</t>
+          <t>2069.91</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>1463.05</t>
+          <t>1874.07</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1200.96</t>
+          <t>1527.21</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1205.20</t>
+          <t>1518.88</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1202.54</t>
+          <t>1561.53</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1203.04</t>
+          <t>1556.14</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2234.91</t>
+          <t>2927.99</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2091.34</t>
+          <t>2849.21</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>1884.73</t>
+          <t>2506.86</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>1686.33</t>
+          <t>2242.69</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1289.56</t>
+          <t>1827.33</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1311.69</t>
+          <t>1828.64</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>1457.99</t>
+          <t>2037.03</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>1469.63</t>
+          <t>2045.13</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1897.09</t>
+          <t>2032.46</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1822.40</t>
+          <t>1966.80</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>884.29</t>
+          <t>1352.66</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1445.74</t>
+          <t>1577.39</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1198.98</t>
+          <t>1347.07</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1189.00</t>
+          <t>1336.83</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1280.37</t>
+          <t>1412.80</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1240.26</t>
+          <t>1436.49</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2361.98</t>
+          <t>2478.45</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2260.09</t>
+          <t>2382.10</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1969.29</t>
+          <t>2152.34</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1771.30</t>
+          <t>1874.24</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1370.11</t>
+          <t>1512.79</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1360.00</t>
+          <t>1501.48</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1446.78</t>
+          <t>1576.07</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1454.10</t>
+          <t>1582.41</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2341.06</t>
+          <t>2458.51</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2261.66</t>
+          <t>2366.95</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>1951.02</t>
+          <t>2099.84</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>1774.58</t>
+          <t>1861.49</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1371.96</t>
+          <t>1501.14</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1364.39</t>
+          <t>1490.11</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1433.11</t>
+          <t>1564.67</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1435.96</t>
+          <t>1595.42</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2332.58</t>
+          <t>2458.23</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2263.73</t>
+          <t>2357.50</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>1953.24</t>
+          <t>2084.08</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>1778.73</t>
+          <t>1859.27</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1373.88</t>
+          <t>1496.97</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1370.23</t>
+          <t>1485.81</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1432.83</t>
+          <t>1561.72</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1432.54</t>
+          <t>1594.15</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2323.92</t>
+          <t>2460.18</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2262.57</t>
+          <t>2351.70</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>1956.40</t>
+          <t>2084.25</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>1782.93</t>
+          <t>1860.76</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1374.60</t>
+          <t>1454.19</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1371.37</t>
+          <t>1444.78</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1424.65</t>
+          <t>1563.23</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1430.39</t>
+          <t>1596.25</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2321.94</t>
+          <t>2462.25</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2263.66</t>
+          <t>2346.97</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>1956.95</t>
+          <t>2085.85</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>1783.88</t>
+          <t>1862.29</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1374.66</t>
+          <t>1453.33</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1370.49</t>
+          <t>1448.05</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1423.57</t>
+          <t>1565.02</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1422.44</t>
+          <t>1599.01</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2324.49</t>
+          <t>2461.49</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2227.35</t>
+          <t>2343.18</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>1957.96</t>
+          <t>2088.11</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1785.09</t>
+          <t>1864.52</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1349.31</t>
+          <t>1456.95</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1372.36</t>
+          <t>1451.75</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1419.34</t>
+          <t>1567.12</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1421.99</t>
+          <t>1601.90</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>2329.97</t>
+          <t>2468.85</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2214.83</t>
+          <t>2344.64</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>1964.09</t>
+          <t>2094.34</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>1801.31</t>
+          <t>1871.57</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1343.95</t>
+          <t>1465.80</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1351.79</t>
+          <t>1460.66</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1427.21</t>
+          <t>1576.92</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1424.00</t>
+          <t>1608.64</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>2396.12</t>
+          <t>2541.49</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>2271.66</t>
+          <t>2414.96</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>1988.45</t>
+          <t>2183.92</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>1874.50</t>
+          <t>1906.62</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1397.98</t>
+          <t>1530.81</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1393.09</t>
+          <t>1525.66</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1488.67</t>
+          <t>1632.27</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1485.98</t>
+          <t>1627.41</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>2955.24</t>
+          <t>3043.80</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>2837.22</t>
+          <t>2875.04</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>2487.84</t>
+          <t>2695.07</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>2329.83</t>
+          <t>2328.66</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>1767.51</t>
+          <t>1907.65</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>1788.74</t>
+          <t>1899.69</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>1959.76</t>
+          <t>2142.74</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>1970.52</t>
+          <t>2153.57</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2089.86</t>
+          <t>2052.96</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1770.18</t>
+          <t>1987.51</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>609.75</t>
+          <t>810.62</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1408.50</t>
+          <t>1565.81</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1193.44</t>
+          <t>1398.47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1185.35</t>
+          <t>1389.09</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1402.71</t>
+          <t>1468.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1399.91</t>
+          <t>1532.92</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2583.74</t>
+          <t>2545.52</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1977.67</t>
+          <t>2499.20</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2111.46</t>
+          <t>2192.89</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1636.72</t>
+          <t>1914.81</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1304.71</t>
+          <t>1564.84</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1293.34</t>
+          <t>1554.07</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1579.57</t>
+          <t>1639.69</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1577.37</t>
+          <t>1714.08</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2584.70</t>
+          <t>2524.17</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2028.74</t>
+          <t>2502.39</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2086.25</t>
+          <t>2152.94</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>1638.09</t>
+          <t>1993.29</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1302.02</t>
+          <t>1567.94</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1290.74</t>
+          <t>1555.44</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1578.41</t>
+          <t>1635.80</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1571.43</t>
+          <t>1717.83</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2580.36</t>
+          <t>2521.91</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2245.85</t>
+          <t>2505.61</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2076.86</t>
+          <t>2096.46</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>1781.78</t>
+          <t>1919.99</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1398.98</t>
+          <t>1571.68</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1391.32</t>
+          <t>1558.61</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1631.28</t>
+          <t>1636.75</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1626.30</t>
+          <t>1666.04</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>2585.11</t>
+          <t>2514.52</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2246.50</t>
+          <t>2506.83</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2077.79</t>
+          <t>2103.33</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>1781.98</t>
+          <t>1880.51</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1400.58</t>
+          <t>1568.47</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1392.80</t>
+          <t>1557.82</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1630.58</t>
+          <t>1622.06</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1625.69</t>
+          <t>1652.44</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>2578.14</t>
+          <t>2513.94</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2247.85</t>
+          <t>2508.27</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2075.86</t>
+          <t>2111.69</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>1783.19</t>
+          <t>1864.06</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1402.45</t>
+          <t>1570.83</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1394.83</t>
+          <t>1560.28</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1569.34</t>
+          <t>1623.95</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1571.43</t>
+          <t>1654.82</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>2564.73</t>
+          <t>2512.55</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2249.15</t>
+          <t>2507.88</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2074.49</t>
+          <t>2113.05</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1784.66</t>
+          <t>1928.75</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1404.65</t>
+          <t>1587.39</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1397.17</t>
+          <t>1576.80</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1565.93</t>
+          <t>1640.05</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1560.90</t>
+          <t>1672.02</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>2567.85</t>
+          <t>2518.35</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2255.62</t>
+          <t>2425.02</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2080.67</t>
+          <t>2118.93</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>1790.96</t>
+          <t>1934.49</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1412.31</t>
+          <t>1595.45</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1404.96</t>
+          <t>1584.93</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1572.04</t>
+          <t>1650.26</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1566.59</t>
+          <t>1679.01</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>2638.60</t>
+          <t>2587.80</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>2337.76</t>
+          <t>2488.26</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2120.20</t>
+          <t>2213.47</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>1834.26</t>
+          <t>1911.59</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>1485.69</t>
+          <t>1654.72</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1478.19</t>
+          <t>1644.17</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>1650.69</t>
+          <t>1706.47</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>1645.43</t>
+          <t>1700.06</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>3253.37</t>
+          <t>3139.34</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>2505.86</t>
+          <t>2998.62</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>2751.70</t>
+          <t>2759.33</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>1945.73</t>
+          <t>2392.34</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>1581.45</t>
+          <t>2032.86</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>1586.95</t>
+          <t>2031.32</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2225.77</t>
+          <t>2223.08</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2237.35</t>
+          <t>2233.96</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1708.11</t>
+          <t>2066.08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1617.57</t>
+          <t>1892.21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>406.00</t>
+          <t>634.92</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1295.32</t>
+          <t>1491.49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1099.52</t>
+          <t>1276.28</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1092.19</t>
+          <t>1265.92</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1230.48</t>
+          <t>1478.38</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1231.80</t>
+          <t>1472.45</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2145.15</t>
+          <t>2600.88</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2034.35</t>
+          <t>2322.16</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1810.66</t>
+          <t>2226.62</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1617.96</t>
+          <t>1817.27</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1278.71</t>
+          <t>1452.07</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1269.22</t>
+          <t>1441.04</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1389.57</t>
+          <t>1723.15</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1403.44</t>
+          <t>1708.32</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2146.56</t>
+          <t>2595.08</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2046.37</t>
+          <t>2316.15</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>1779.40</t>
+          <t>2090.30</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1631.61</t>
+          <t>1813.47</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1286.24</t>
+          <t>1449.76</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1276.79</t>
+          <t>1438.44</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1386.62</t>
+          <t>1718.52</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1380.86</t>
+          <t>1734.20</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2143.52</t>
+          <t>2592.46</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2048.03</t>
+          <t>2314.04</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>1768.87</t>
+          <t>2087.61</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>1635.81</t>
+          <t>1796.25</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1288.27</t>
+          <t>1442.68</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1281.20</t>
+          <t>1431.70</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1387.48</t>
+          <t>1731.25</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1381.51</t>
+          <t>1747.56</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2135.30</t>
+          <t>2590.63</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2046.03</t>
+          <t>2292.52</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>1756.18</t>
+          <t>2087.04</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>1634.28</t>
+          <t>1800.19</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1287.70</t>
+          <t>1435.10</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1280.80</t>
+          <t>1424.55</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1385.85</t>
+          <t>1665.48</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1379.78</t>
+          <t>1695.02</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2129.35</t>
+          <t>2492.05</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2043.42</t>
+          <t>2300.89</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>1747.02</t>
+          <t>2086.65</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>1632.36</t>
+          <t>1802.63</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1286.72</t>
+          <t>1428.76</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1279.97</t>
+          <t>1418.27</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1384.17</t>
+          <t>1665.16</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1378.20</t>
+          <t>1694.82</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2124.39</t>
+          <t>2492.56</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2041.94</t>
+          <t>2307.57</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>1743.83</t>
+          <t>2086.96</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1631.64</t>
+          <t>1804.74</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1286.70</t>
+          <t>1431.39</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1280.12</t>
+          <t>1424.61</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1383.34</t>
+          <t>1665.20</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1377.45</t>
+          <t>1696.07</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2128.03</t>
+          <t>2496.72</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2047.63</t>
+          <t>2318.17</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>1749.60</t>
+          <t>2090.35</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>1637.64</t>
+          <t>1811.80</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1293.62</t>
+          <t>1439.38</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1287.21</t>
+          <t>1429.24</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1387.53</t>
+          <t>1673.08</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1381.71</t>
+          <t>1700.99</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>2200.56</t>
+          <t>2560.77</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2130.24</t>
+          <t>2397.33</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>1790.74</t>
+          <t>2173.60</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>1686.01</t>
+          <t>1848.66</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1364.97</t>
+          <t>1506.99</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1358.68</t>
+          <t>1496.79</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1441.47</t>
+          <t>1729.83</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1435.46</t>
+          <t>1723.17</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>2735.62</t>
+          <t>3128.15</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>2156.26</t>
+          <t>2965.53</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>2203.44</t>
+          <t>2692.57</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>1749.97</t>
+          <t>2249.12</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>1389.54</t>
+          <t>2020.12</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>1396.61</t>
+          <t>2017.23</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>1804.29</t>
+          <t>2303.07</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>1806.05</t>
+          <t>2307.43</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>344.27</t>
+          <t>1757.46</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>343.77</t>
+          <t>1725.57</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>274.85</t>
+          <t>471.63</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>344.33</t>
+          <t>1355.74</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>350.91</t>
+          <t>1123.41</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>350.73</t>
+          <t>1113.54</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>356.57</t>
+          <t>1198.37</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>354.74</t>
+          <t>1209.18</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>346.48</t>
+          <t>2165.87</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>343.91</t>
+          <t>2116.98</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>342.64</t>
+          <t>1850.83</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>343.83</t>
+          <t>1725.89</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>361.05</t>
+          <t>1336.58</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>360.89</t>
+          <t>1339.56</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>366.29</t>
+          <t>1348.37</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>365.93</t>
+          <t>1356.31</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>382.31</t>
+          <t>2157.94</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>346.27</t>
+          <t>2091.55</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>348.25</t>
+          <t>1810.48</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>346.19</t>
+          <t>1721.62</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>363.83</t>
+          <t>1332.67</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>363.65</t>
+          <t>1336.07</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>368.92</t>
+          <t>1336.85</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>368.85</t>
+          <t>1371.88</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>348.33</t>
+          <t>2157.10</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>346.28</t>
+          <t>2098.21</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>348.38</t>
+          <t>1802.45</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>346.19</t>
+          <t>1726.39</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>363.73</t>
+          <t>1335.72</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>363.56</t>
+          <t>1339.21</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>368.50</t>
+          <t>1336.93</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>368.41</t>
+          <t>1369.29</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>347.54</t>
+          <t>2158.23</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>345.63</t>
+          <t>2107.52</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>347.54</t>
+          <t>1805.21</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>345.59</t>
+          <t>1728.94</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>362.75</t>
+          <t>1340.04</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>362.61</t>
+          <t>1343.52</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>367.11</t>
+          <t>1339.29</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>366.98</t>
+          <t>1371.58</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>346.68</t>
+          <t>2159.63</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>344.94</t>
+          <t>2132.91</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>346.62</t>
+          <t>1810.19</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>344.92</t>
+          <t>1730.74</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>361.66</t>
+          <t>1344.30</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>361.55</t>
+          <t>1347.71</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>365.59</t>
+          <t>1341.85</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>365.43</t>
+          <t>1374.61</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>345.78</t>
+          <t>2165.24</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>344.23</t>
+          <t>2138.78</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>345.72</t>
+          <t>1813.84</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>344.27</t>
+          <t>1732.00</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>360.59</t>
+          <t>1348.50</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>360.53</t>
+          <t>1351.77</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>364.01</t>
+          <t>1344.15</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>363.85</t>
+          <t>1377.61</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>344.54</t>
+          <t>2175.12</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>343.17</t>
+          <t>2146.77</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>344.56</t>
+          <t>1818.91</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>343.28</t>
+          <t>1735.67</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>359.12</t>
+          <t>1356.36</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>359.08</t>
+          <t>1359.46</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>361.88</t>
+          <t>1352.81</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>361.75</t>
+          <t>1383.38</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>342.21</t>
+          <t>2237.79</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>340.89</t>
+          <t>2213.16</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>342.18</t>
+          <t>1894.19</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>342.61</t>
+          <t>1761.35</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>355.76</t>
+          <t>1412.78</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>355.74</t>
+          <t>1415.28</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>357.81</t>
+          <t>1405.37</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>357.73</t>
+          <t>1401.92</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>343.89</t>
+          <t>2645.95</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>343.81</t>
+          <t>2548.76</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>343.89</t>
+          <t>2301.32</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>343.82</t>
+          <t>2082.09</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>343.01</t>
+          <t>1669.24</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>343.02</t>
+          <t>1680.75</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1027.61</t>
+          <t>1842.76</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1025.33</t>
+          <t>1849.45</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2089.86</t>
+          <t>2198.07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1822.40</t>
+          <t>1987.51</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>884.29</t>
+          <t>1581.60</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1445.74</t>
+          <t>1577.39</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1198.98</t>
+          <t>1398.47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1189.00</t>
+          <t>1389.09</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1402.71</t>
+          <t>1533.85</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1399.91</t>
+          <t>1563.61</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2583.74</t>
+          <t>2669.59</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2260.09</t>
+          <t>2499.20</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2111.46</t>
+          <t>2249.27</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1771.30</t>
+          <t>1914.81</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1370.11</t>
+          <t>1564.84</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1360.00</t>
+          <t>1554.07</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1579.57</t>
+          <t>1761.09</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1577.37</t>
+          <t>1759.68</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2584.70</t>
+          <t>2653.44</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2261.66</t>
+          <t>2511.71</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2086.25</t>
+          <t>2202.97</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>1774.58</t>
+          <t>1993.29</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1371.96</t>
+          <t>1567.94</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1364.39</t>
+          <t>1555.44</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1578.41</t>
+          <t>1751.09</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1571.43</t>
+          <t>1780.30</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2580.36</t>
+          <t>2644.40</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2263.73</t>
+          <t>2505.61</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2076.86</t>
+          <t>2131.71</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>1781.78</t>
+          <t>1919.99</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1398.98</t>
+          <t>1571.68</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1391.32</t>
+          <t>1558.61</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1631.28</t>
+          <t>1739.27</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1626.30</t>
+          <t>1747.56</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>2585.11</t>
+          <t>2635.40</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2262.57</t>
+          <t>2506.83</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2077.79</t>
+          <t>2103.33</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>1782.93</t>
+          <t>1892.25</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1400.58</t>
+          <t>1568.47</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1392.80</t>
+          <t>1557.82</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1630.58</t>
+          <t>1665.48</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1625.69</t>
+          <t>1695.02</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>2578.14</t>
+          <t>2629.62</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2263.66</t>
+          <t>2508.27</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2075.86</t>
+          <t>2111.69</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>1783.88</t>
+          <t>1887.37</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1402.45</t>
+          <t>1570.83</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1394.83</t>
+          <t>1560.28</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1569.34</t>
+          <t>1665.16</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1571.43</t>
+          <t>1694.82</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>2564.73</t>
+          <t>2625.65</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2249.15</t>
+          <t>2507.88</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2074.49</t>
+          <t>2113.05</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1785.09</t>
+          <t>1928.75</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1404.65</t>
+          <t>1587.39</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1397.17</t>
+          <t>1576.80</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>1565.93</t>
+          <t>1665.20</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1560.90</t>
+          <t>1696.07</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>2567.85</t>
+          <t>2625.08</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>2255.62</t>
+          <t>2425.02</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2080.67</t>
+          <t>2118.93</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>1801.31</t>
+          <t>1934.49</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1412.31</t>
+          <t>1595.45</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1404.96</t>
+          <t>1584.93</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1572.04</t>
+          <t>1673.08</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1566.59</t>
+          <t>1700.99</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>2638.60</t>
+          <t>2688.82</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>2337.76</t>
+          <t>2488.26</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2120.20</t>
+          <t>2213.47</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>1874.50</t>
+          <t>1923.35</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>1485.69</t>
+          <t>1654.72</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1478.19</t>
+          <t>1644.17</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>1650.69</t>
+          <t>1729.83</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>1645.43</t>
+          <t>1723.17</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>3253.37</t>
+          <t>3244.24</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>2837.22</t>
+          <t>2998.62</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>2751.70</t>
+          <t>2759.33</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>2329.83</t>
+          <t>2392.34</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>1767.51</t>
+          <t>2032.86</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>1788.74</t>
+          <t>2031.32</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2225.77</t>
+          <t>2319.47</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2237.35</t>
+          <t>2314.74</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_SanDiegoTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_SanDiegoTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2198.07</t>
+          <t>2185.45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1733.39</t>
+          <t>1636.52</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>555.11</t>
+          <t>720.70</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1355.74</t>
+          <t>1335.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1123.41</t>
+          <t>1152.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1113.54</t>
+          <t>1148.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1533.85</t>
+          <t>1493.10</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1563.61</t>
+          <t>1501.57</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2669.59</t>
+          <t>2681.16</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2245.38</t>
+          <t>2056.28</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2249.27</t>
+          <t>2238.06</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1778.74</t>
+          <t>1651.97</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1446.36</t>
+          <t>1322.22</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1435.31</t>
+          <t>1310.99</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1761.09</t>
+          <t>1691.22</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1759.68</t>
+          <t>1688.71</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2653.44</t>
+          <t>2660.41</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2257.58</t>
+          <t>2069.21</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2202.97</t>
+          <t>2194.55</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1791.98</t>
+          <t>1791.74</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1457.80</t>
+          <t>1325.60</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1446.82</t>
+          <t>1316.45</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1751.09</t>
+          <t>1676.57</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1780.30</t>
+          <t>1668.88</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2644.40</t>
+          <t>2649.43</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2268.30</t>
+          <t>2085.12</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2131.71</t>
+          <t>2178.22</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1799.92</t>
+          <t>1663.86</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1464.45</t>
+          <t>1449.75</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1453.54</t>
+          <t>1436.82</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1739.27</t>
+          <t>1673.39</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1688.99</t>
+          <t>1665.28</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2635.40</t>
+          <t>2642.18</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2274.02</t>
+          <t>2090.46</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2074.55</t>
+          <t>2172.79</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1805.41</t>
+          <t>1663.52</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1467.93</t>
+          <t>1441.75</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1457.13</t>
+          <t>1428.94</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1604.92</t>
+          <t>1661.61</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1632.31</t>
+          <t>1652.71</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2629.62</t>
+          <t>2637.26</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>2282.64</t>
+          <t>2101.67</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2075.13</t>
+          <t>2140.54</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1811.94</t>
+          <t>1665.58</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1470.11</t>
+          <t>1437.75</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1459.21</t>
+          <t>1424.70</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1601.39</t>
+          <t>1662.20</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1629.17</t>
+          <t>1655.34</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2625.65</t>
+          <t>2608.76</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>2290.10</t>
+          <t>2117.17</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2076.78</t>
+          <t>2135.65</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1814.60</t>
+          <t>1633.70</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1472.33</t>
+          <t>1339.15</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1461.40</t>
+          <t>1330.98</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1618.10</t>
+          <t>1598.63</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1647.21</t>
+          <t>1591.91</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2625.08</t>
+          <t>2608.03</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>2300.76</t>
+          <t>2123.25</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2083.36</t>
+          <t>2130.12</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>1823.11</t>
+          <t>1646.40</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1481.13</t>
+          <t>1337.69</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1470.43</t>
+          <t>1328.69</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1626.22</t>
+          <t>1602.23</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1652.09</t>
+          <t>1596.96</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>2688.82</t>
+          <t>2662.96</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>2379.59</t>
+          <t>2199.73</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2162.69</t>
+          <t>2166.55</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1864.47</t>
+          <t>1674.29</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1556.17</t>
+          <t>1398.92</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1545.34</t>
+          <t>1389.66</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1684.68</t>
+          <t>1652.27</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1675.61</t>
+          <t>1642.51</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3158.34</t>
+          <t>3237.81</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>2831.50</t>
+          <t>2644.87</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>2580.16</t>
+          <t>2768.84</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>2240.23</t>
+          <t>2024.79</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1835.99</t>
+          <t>1566.63</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1835.31</t>
+          <t>1591.24</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2319.47</t>
+          <t>2297.01</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2314.74</t>
+          <t>2302.78</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2151.41</t>
+          <t>2205.20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1905.82</t>
+          <t>1923.51</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>609.05</t>
+          <t>608.27</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1501.98</t>
+          <t>1577.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1261.27</t>
+          <t>1354.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1260.12</t>
+          <t>1157.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1434.87</t>
+          <t>1562.00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1470.52</t>
+          <t>1560.54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2611.97</t>
+          <t>2696.95</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2415.27</t>
+          <t>2359.18</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2206.42</t>
+          <t>2244.29</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1882.51</t>
+          <t>1662.31</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1445.30</t>
+          <t>1322.87</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1432.07</t>
+          <t>1319.56</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1727.70</t>
+          <t>1745.66</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1721.12</t>
+          <t>1737.15</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2596.28</t>
+          <t>2675.45</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2511.71</t>
+          <t>2351.85</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2137.43</t>
+          <t>2215.16</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1924.99</t>
+          <t>1909.79</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1455.02</t>
+          <t>1533.16</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1445.39</t>
+          <t>1525.67</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1730.34</t>
+          <t>1736.38</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1751.10</t>
+          <t>1727.52</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2587.30</t>
+          <t>2661.21</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2476.11</t>
+          <t>2350.72</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2097.47</t>
+          <t>2207.83</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1909.25</t>
+          <t>1906.26</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1456.46</t>
+          <t>1531.69</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1444.84</t>
+          <t>1524.00</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1696.01</t>
+          <t>1733.56</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1698.58</t>
+          <t>1724.29</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2577.88</t>
+          <t>2652.36</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2407.69</t>
+          <t>2349.56</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2094.03</t>
+          <t>2157.27</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>1881.03</t>
+          <t>1904.03</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1453.29</t>
+          <t>1531.50</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1442.77</t>
+          <t>1523.90</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1665.03</t>
+          <t>1730.16</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1691.26</t>
+          <t>1720.73</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>2571.13</t>
+          <t>2646.24</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2402.42</t>
+          <t>2343.35</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2088.47</t>
+          <t>2160.40</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>1829.89</t>
+          <t>1905.02</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1451.80</t>
+          <t>1529.79</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1440.06</t>
+          <t>1523.14</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1661.05</t>
+          <t>1725.10</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1686.50</t>
+          <t>1717.43</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2564.59</t>
+          <t>2637.85</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>2399.95</t>
+          <t>2171.27</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>2085.10</t>
+          <t>2149.85</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1826.20</t>
+          <t>1904.34</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>1440.86</t>
+          <t>1529.71</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>1431.07</t>
+          <t>1521.92</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1612.39</t>
+          <t>1721.40</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1633.96</t>
+          <t>1713.79</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>2561.88</t>
+          <t>2639.84</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>2402.57</t>
+          <t>2027.92</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>2088.41</t>
+          <t>2131.79</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>1831.68</t>
+          <t>1908.37</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>1448.25</t>
+          <t>1535.13</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>1438.51</t>
+          <t>1526.78</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1620.16</t>
+          <t>1686.79</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1635.83</t>
+          <t>1651.23</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>2630.61</t>
+          <t>2713.35</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>2471.54</t>
+          <t>1981.29</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>2173.25</t>
+          <t>2181.96</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>1871.35</t>
+          <t>1934.83</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>1529.03</t>
+          <t>1596.08</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>1517.36</t>
+          <t>1587.28</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1693.93</t>
+          <t>1715.89</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1682.99</t>
+          <t>1707.40</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>3244.24</t>
+          <t>3278.30</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>2975.68</t>
+          <t>2433.88</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>2750.40</t>
+          <t>2805.47</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>2306.18</t>
+          <t>1874.71</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>2012.26</t>
+          <t>1454.13</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>2006.97</t>
+          <t>1466.98</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>2272.90</t>
+          <t>2301.38</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>2279.10</t>
+          <t>2309.86</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2125.21</t>
+          <t>2148.54</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1949.60</t>
+          <t>2029.05</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>471.63</t>
+          <t>609.59</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1542.45</t>
+          <t>1639.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1323.62</t>
+          <t>1347.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1313.39</t>
+          <t>1336.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1515.45</t>
+          <t>1473.96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1511.00</t>
+          <t>1472.59</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2564.54</t>
+          <t>2679.40</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2384.71</t>
+          <t>2557.44</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2148.73</t>
+          <t>2254.87</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1863.83</t>
+          <t>2035.97</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1511.41</t>
+          <t>1553.15</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1500.50</t>
+          <t>1538.82</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1686.92</t>
+          <t>1630.46</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1684.17</t>
+          <t>1629.16</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2547.94</t>
+          <t>2661.71</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2374.84</t>
+          <t>2473.84</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2106.08</t>
+          <t>2168.80</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1865.60</t>
+          <t>1959.36</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1510.95</t>
+          <t>1571.03</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1497.40</t>
+          <t>1555.18</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1673.24</t>
+          <t>1633.84</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1705.01</t>
+          <t>1628.07</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2544.61</t>
+          <t>2655.97</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2370.91</t>
+          <t>2488.10</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2096.19</t>
+          <t>2165.25</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1863.88</t>
+          <t>1953.57</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1488.93</t>
+          <t>1594.63</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1477.14</t>
+          <t>1581.30</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1663.42</t>
+          <t>1635.14</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1694.24</t>
+          <t>1628.14</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2535.57</t>
+          <t>2652.44</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2365.23</t>
+          <t>2511.70</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2086.73</t>
+          <t>2166.21</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1840.29</t>
+          <t>1959.78</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1472.66</t>
+          <t>1565.80</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1460.13</t>
+          <t>1601.92</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1525.84</t>
+          <t>1643.76</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1556.95</t>
+          <t>1637.12</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2526.76</t>
+          <t>2649.43</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2361.30</t>
+          <t>2497.81</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>2085.11</t>
+          <t>2168.65</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1836.30</t>
+          <t>1968.07</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1472.91</t>
+          <t>1561.14</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1460.70</t>
+          <t>1551.21</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1525.47</t>
+          <t>1637.76</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1557.13</t>
+          <t>1633.19</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2519.41</t>
+          <t>2647.79</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2361.17</t>
+          <t>2500.19</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2085.34</t>
+          <t>2169.35</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1838.31</t>
+          <t>1965.04</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1474.17</t>
+          <t>1560.13</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1462.16</t>
+          <t>1549.36</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1525.87</t>
+          <t>1634.38</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1558.32</t>
+          <t>1629.62</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2515.33</t>
+          <t>2651.97</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2366.09</t>
+          <t>2512.31</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>2080.60</t>
+          <t>2175.54</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1844.11</t>
+          <t>1953.24</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1480.68</t>
+          <t>1565.83</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1468.75</t>
+          <t>1555.12</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1535.10</t>
+          <t>1635.74</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1563.92</t>
+          <t>1630.83</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2577.13</t>
+          <t>2730.10</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2433.83</t>
+          <t>2590.00</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2168.72</t>
+          <t>2241.05</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>1879.97</t>
+          <t>1984.47</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1544.90</t>
+          <t>1630.46</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1532.36</t>
+          <t>1619.65</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1596.33</t>
+          <t>1699.06</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1588.43</t>
+          <t>1690.33</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3184.97</t>
+          <t>3287.38</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>2995.67</t>
+          <t>3085.69</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2758.84</t>
+          <t>2809.16</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2271.80</t>
+          <t>2410.28</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>1922.75</t>
+          <t>1924.18</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>1920.37</t>
+          <t>1943.62</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2213.62</t>
+          <t>2284.10</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2216.44</t>
+          <t>2294.49</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1953.57</t>
+          <t>2189.80</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1875.88</t>
+          <t>2106.98</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>774.76</t>
+          <t>388.15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1574.61</t>
+          <t>1706.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1278.13</t>
+          <t>1439.05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1269.22</t>
+          <t>1433.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1449.28</t>
+          <t>1512.73</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1448.26</t>
+          <t>1518.60</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2467.58</t>
+          <t>2634.91</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2382.52</t>
+          <t>2521.67</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2077.64</t>
+          <t>2229.59</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1899.36</t>
+          <t>2009.76</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1524.41</t>
+          <t>1506.90</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1514.52</t>
+          <t>1496.67</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1606.27</t>
+          <t>1718.27</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1603.17</t>
+          <t>1715.21</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2455.59</t>
+          <t>2611.15</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2336.41</t>
+          <t>2501.75</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2047.61</t>
+          <t>2180.74</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1896.08</t>
+          <t>1807.47</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1520.56</t>
+          <t>1499.72</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1513.45</t>
+          <t>1486.03</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1601.15</t>
+          <t>1702.88</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1629.15</t>
+          <t>1696.45</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2450.92</t>
+          <t>2597.36</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2339.89</t>
+          <t>2490.03</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2039.86</t>
+          <t>2001.46</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1896.14</t>
+          <t>1811.44</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1416.36</t>
+          <t>1371.50</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1510.29</t>
+          <t>1364.31</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1602.06</t>
+          <t>1567.41</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1630.16</t>
+          <t>1558.29</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2429.24</t>
+          <t>2587.39</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2343.11</t>
+          <t>2482.15</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2036.61</t>
+          <t>2004.88</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1892.25</t>
+          <t>1816.49</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1538.10</t>
+          <t>1399.68</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1528.32</t>
+          <t>1365.52</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1594.79</t>
+          <t>1564.58</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1625.00</t>
+          <t>1555.10</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2431.30</t>
+          <t>2579.20</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2346.05</t>
+          <t>2380.91</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2029.75</t>
+          <t>2006.19</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1887.37</t>
+          <t>1821.03</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1540.03</t>
+          <t>1400.42</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1530.27</t>
+          <t>1382.89</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1596.20</t>
+          <t>1462.30</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1627.11</t>
+          <t>1453.26</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2433.89</t>
+          <t>2571.55</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2349.49</t>
+          <t>2383.66</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2027.65</t>
+          <t>2008.64</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1883.40</t>
+          <t>1826.93</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1537.91</t>
+          <t>1400.77</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1532.72</t>
+          <t>1395.09</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1598.23</t>
+          <t>1464.74</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1629.86</t>
+          <t>1460.35</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2442.09</t>
+          <t>2517.18</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2358.47</t>
+          <t>2392.00</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2032.05</t>
+          <t>2015.35</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1833.61</t>
+          <t>1833.94</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1513.92</t>
+          <t>1407.36</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1536.84</t>
+          <t>1400.88</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1608.53</t>
+          <t>1473.12</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1636.95</t>
+          <t>1467.62</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2528.22</t>
+          <t>2602.84</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2443.21</t>
+          <t>2477.62</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>2124.75</t>
+          <t>2083.62</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>1923.35</t>
+          <t>1872.76</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1503.96</t>
+          <t>1474.25</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1522.92</t>
+          <t>1466.65</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1667.61</t>
+          <t>1545.30</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1661.19</t>
+          <t>1537.95</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3099.72</t>
+          <t>3196.11</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>2985.24</t>
+          <t>3022.32</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2628.42</t>
+          <t>2641.42</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2322.12</t>
+          <t>2320.09</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1862.81</t>
+          <t>1789.30</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1924.79</t>
+          <t>1805.00</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2114.12</t>
+          <t>2128.85</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2119.84</t>
+          <t>2134.46</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1933.16</t>
+          <t>1776.63</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1879.77</t>
+          <t>1707.84</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>923.74</t>
+          <t>386.21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1515.50</t>
+          <t>1349.96</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1258.40</t>
+          <t>1100.71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1250.78</t>
+          <t>1098.55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1295.89</t>
+          <t>1155.19</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1294.59</t>
+          <t>1160.06</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2392.53</t>
+          <t>2255.66</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2310.33</t>
+          <t>2159.41</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025.07</t>
+          <t>1872.21</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1835.81</t>
+          <t>1679.60</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1430.83</t>
+          <t>1273.49</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1420.75</t>
+          <t>1262.51</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1466.15</t>
+          <t>1332.48</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1461.94</t>
+          <t>1336.06</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2381.05</t>
+          <t>2253.72</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2305.92</t>
+          <t>2164.62</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1980.40</t>
+          <t>1844.58</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1832.14</t>
+          <t>1690.60</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1426.49</t>
+          <t>1275.15</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1418.37</t>
+          <t>1264.43</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1461.44</t>
+          <t>1330.04</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1492.02</t>
+          <t>1328.32</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2379.65</t>
+          <t>2258.52</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2307.36</t>
+          <t>2171.39</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>1972.76</t>
+          <t>1842.78</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>1836.06</t>
+          <t>1697.40</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1429.51</t>
+          <t>1278.63</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1421.45</t>
+          <t>1267.93</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1462.05</t>
+          <t>1332.21</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1492.87</t>
+          <t>1328.46</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2380.84</t>
+          <t>2262.84</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2309.26</t>
+          <t>2176.93</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1972.80</t>
+          <t>1848.82</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>1836.79</t>
+          <t>1702.47</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1432.76</t>
+          <t>1280.33</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1422.44</t>
+          <t>1270.28</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1464.85</t>
+          <t>1333.85</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1496.32</t>
+          <t>1329.64</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2382.19</t>
+          <t>2266.58</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2311.08</t>
+          <t>2181.51</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>1974.20</t>
+          <t>1852.90</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>1837.52</t>
+          <t>1709.90</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1435.73</t>
+          <t>1281.87</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1425.45</t>
+          <t>1277.25</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1467.48</t>
+          <t>1335.10</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1499.68</t>
+          <t>1333.12</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2384.30</t>
+          <t>2270.46</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2313.53</t>
+          <t>2186.16</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>1976.46</t>
+          <t>1857.45</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1839.10</t>
+          <t>1714.30</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1439.21</t>
+          <t>1283.77</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1428.96</t>
+          <t>1278.36</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1470.60</t>
+          <t>1337.64</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1503.58</t>
+          <t>1335.32</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2393.23</t>
+          <t>2279.18</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2321.37</t>
+          <t>2195.60</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>1983.61</t>
+          <t>1865.88</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>1845.99</t>
+          <t>1723.24</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1448.37</t>
+          <t>1292.51</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1438.16</t>
+          <t>1286.31</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1482.44</t>
+          <t>1346.26</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1512.11</t>
+          <t>1343.84</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2469.00</t>
+          <t>2359.68</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2392.79</t>
+          <t>2275.14</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2079.49</t>
+          <t>1931.65</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>1881.43</t>
+          <t>1759.94</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1516.19</t>
+          <t>1361.72</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1505.80</t>
+          <t>1355.30</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1545.57</t>
+          <t>1413.95</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1538.75</t>
+          <t>1408.72</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>2955.09</t>
+          <t>2834.84</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>2845.13</t>
+          <t>2732.85</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2598.27</t>
+          <t>2412.61</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2314.53</t>
+          <t>2163.40</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>1820.07</t>
+          <t>1682.28</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>1820.14</t>
+          <t>1701.67</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2057.64</t>
+          <t>1955.85</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2064.97</t>
+          <t>1962.23</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1799.02</t>
+          <t>1656.39</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1754.96</t>
+          <t>1606.51</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1125.22</t>
+          <t>607.79</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1445.18</t>
+          <t>1258.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1201.09</t>
+          <t>1008.56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1203.43</t>
+          <t>1008.76</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1219.39</t>
+          <t>1052.59</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1232.23</t>
+          <t>1066.96</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2232.19</t>
+          <t>2076.57</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2159.41</t>
+          <t>2003.40</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1889.95</t>
+          <t>1762.23</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1741.93</t>
+          <t>1568.56</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1363.78</t>
+          <t>1169.69</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1365.35</t>
+          <t>1165.94</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1380.61</t>
+          <t>1216.06</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1392.62</t>
+          <t>1222.43</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2218.19</t>
+          <t>2050.98</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2154.45</t>
+          <t>1984.76</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1845.73</t>
+          <t>1697.32</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1737.04</t>
+          <t>1566.13</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1359.99</t>
+          <t>1166.80</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1361.46</t>
+          <t>1164.68</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1371.83</t>
+          <t>1207.93</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1409.05</t>
+          <t>1208.45</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2217.27</t>
+          <t>2046.13</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2156.89</t>
+          <t>1981.83</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1837.94</t>
+          <t>1686.15</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1740.41</t>
+          <t>1566.28</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1362.68</t>
+          <t>1169.52</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1364.14</t>
+          <t>1167.56</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1372.64</t>
+          <t>1209.31</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1408.71</t>
+          <t>1208.03</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2218.33</t>
+          <t>2043.25</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2160.13</t>
+          <t>1980.14</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1838.00</t>
+          <t>1686.11</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1742.71</t>
+          <t>1566.59</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1366.45</t>
+          <t>1172.07</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1367.92</t>
+          <t>1170.19</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1375.18</t>
+          <t>1211.06</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1411.35</t>
+          <t>1209.26</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2219.72</t>
+          <t>2041.06</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2163.24</t>
+          <t>1978.88</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1839.76</t>
+          <t>1685.66</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1745.52</t>
+          <t>1570.18</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1370.13</t>
+          <t>1174.09</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1371.60</t>
+          <t>1172.25</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1377.82</t>
+          <t>1212.52</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1414.50</t>
+          <t>1213.15</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2221.66</t>
+          <t>2025.90</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2166.60</t>
+          <t>1969.45</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1841.71</t>
+          <t>1674.23</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1748.73</t>
+          <t>1562.76</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1373.74</t>
+          <t>1174.91</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1375.11</t>
+          <t>1173.37</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1380.23</t>
+          <t>1211.51</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1417.61</t>
+          <t>1210.28</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2228.18</t>
+          <t>2029.27</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2174.95</t>
+          <t>1973.41</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1845.29</t>
+          <t>1677.29</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1754.55</t>
+          <t>1567.05</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1380.74</t>
+          <t>1180.23</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1381.93</t>
+          <t>1178.43</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1388.72</t>
+          <t>1215.70</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1422.86</t>
+          <t>1214.21</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2297.76</t>
+          <t>2100.11</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2242.20</t>
+          <t>2043.96</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>1923.92</t>
+          <t>1731.52</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>1781.01</t>
+          <t>1595.89</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1436.86</t>
+          <t>1238.47</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1436.56</t>
+          <t>1235.64</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1437.32</t>
+          <t>1272.24</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1435.32</t>
+          <t>1267.35</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2719.13</t>
+          <t>2520.55</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>2636.21</t>
+          <t>2444.43</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2326.96</t>
+          <t>2154.19</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2102.85</t>
+          <t>1994.45</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1699.17</t>
+          <t>1516.97</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1702.93</t>
+          <t>1535.40</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1886.03</t>
+          <t>1734.76</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1893.19</t>
+          <t>1740.15</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1757.46</t>
+          <t>1413.82</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1753.41</t>
+          <t>1357.92</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1560.70</t>
+          <t>636.28</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1451.57</t>
+          <t>1090.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1204.02</t>
+          <t>885.63</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1206.84</t>
+          <t>890.01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1198.37</t>
+          <t>930.46</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1209.18</t>
+          <t>948.98</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2165.87</t>
+          <t>1805.83</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2145.32</t>
+          <t>1754.32</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1850.83</t>
+          <t>1566.38</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1738.15</t>
+          <t>1375.01</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1360.96</t>
+          <t>1029.88</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1362.91</t>
+          <t>1030.27</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1348.37</t>
+          <t>1084.74</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1356.31</t>
+          <t>1094.86</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2157.94</t>
+          <t>1783.50</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2136.65</t>
+          <t>1739.81</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1810.48</t>
+          <t>1490.73</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1727.35</t>
+          <t>1367.50</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1352.05</t>
+          <t>1025.15</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1357.15</t>
+          <t>1025.68</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1336.85</t>
+          <t>1069.75</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1371.88</t>
+          <t>1079.03</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2157.10</t>
+          <t>1779.05</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2136.54</t>
+          <t>1736.48</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1802.45</t>
+          <t>1476.17</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1728.24</t>
+          <t>1364.80</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1351.58</t>
+          <t>1026.13</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1357.88</t>
+          <t>1026.62</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1336.93</t>
+          <t>1063.87</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1369.29</t>
+          <t>1075.91</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2158.23</t>
+          <t>1777.61</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2137.92</t>
+          <t>1735.22</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1805.21</t>
+          <t>1474.57</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1728.94</t>
+          <t>1363.70</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1354.52</t>
+          <t>1027.79</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1361.31</t>
+          <t>1028.22</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1339.29</t>
+          <t>1065.01</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1371.58</t>
+          <t>1075.38</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2159.63</t>
+          <t>1776.64</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2139.46</t>
+          <t>1734.35</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1810.19</t>
+          <t>1473.10</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1730.74</t>
+          <t>1366.31</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1359.80</t>
+          <t>1029.21</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1364.53</t>
+          <t>1029.50</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1341.85</t>
+          <t>1066.07</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1374.61</t>
+          <t>1078.11</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2165.24</t>
+          <t>1775.61</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2141.40</t>
+          <t>1733.73</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1813.84</t>
+          <t>1472.31</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1732.00</t>
+          <t>1365.58</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1360.02</t>
+          <t>1030.21</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1367.44</t>
+          <t>1030.27</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1344.15</t>
+          <t>1066.72</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1377.61</t>
+          <t>1072.41</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2175.12</t>
+          <t>1776.73</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2147.88</t>
+          <t>1736.48</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1818.91</t>
+          <t>1473.70</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>1735.67</t>
+          <t>1367.16</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1366.33</t>
+          <t>1033.76</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1373.24</t>
+          <t>1033.33</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1352.81</t>
+          <t>1069.45</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1383.38</t>
+          <t>1070.40</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2237.79</t>
+          <t>1812.10</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2213.16</t>
+          <t>1797.83</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1894.19</t>
+          <t>1528.64</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>1761.35</t>
+          <t>1390.53</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1420.05</t>
+          <t>1081.01</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1420.91</t>
+          <t>1079.06</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1405.37</t>
+          <t>1096.71</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1401.92</t>
+          <t>1113.22</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2672.89</t>
+          <t>2243.73</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>2596.80</t>
+          <t>2169.20</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2301.32</t>
+          <t>1946.07</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2082.09</t>
+          <t>1743.49</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1679.07</t>
+          <t>1307.89</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1683.11</t>
+          <t>1337.98</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1842.76</t>
+          <t>1534.63</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1849.45</t>
+          <t>1546.72</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1778.37</t>
+          <t>1463.12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1725.57</t>
+          <t>1398.74</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1581.60</t>
+          <t>826.19</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1418.89</t>
+          <t>1163.39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1170.79</t>
+          <t>926.28</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1174.78</t>
+          <t>930.80</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1203.45</t>
+          <t>976.74</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1210.78</t>
+          <t>998.95</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2178.06</t>
+          <t>1823.23</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2116.98</t>
+          <t>1731.15</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1881.08</t>
+          <t>1645.51</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1725.89</t>
+          <t>1431.04</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1336.58</t>
+          <t>1067.91</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1339.56</t>
+          <t>1069.48</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1370.49</t>
+          <t>1108.63</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1377.72</t>
+          <t>1132.91</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2167.04</t>
+          <t>1789.86</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2091.55</t>
+          <t>1704.43</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1848.77</t>
+          <t>1522.60</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1721.62</t>
+          <t>1397.63</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1332.67</t>
+          <t>1048.71</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1336.07</t>
+          <t>1059.54</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1362.00</t>
+          <t>1097.44</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1401.28</t>
+          <t>1103.88</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2172.09</t>
+          <t>1781.40</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2098.21</t>
+          <t>1698.05</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1844.15</t>
+          <t>1501.14</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1726.39</t>
+          <t>1388.40</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1335.72</t>
+          <t>1047.67</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1339.21</t>
+          <t>1057.44</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1363.28</t>
+          <t>1095.54</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1401.62</t>
+          <t>1098.38</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2179.30</t>
+          <t>1775.93</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2107.52</t>
+          <t>1693.80</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1845.84</t>
+          <t>1493.36</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1729.08</t>
+          <t>1381.94</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1340.04</t>
+          <t>1044.86</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1343.52</t>
+          <t>1056.69</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1366.49</t>
+          <t>1094.30</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1404.88</t>
+          <t>1095.96</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2186.30</t>
+          <t>1771.54</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2132.91</t>
+          <t>1690.35</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1848.43</t>
+          <t>1486.39</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1731.93</t>
+          <t>1379.84</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1344.30</t>
+          <t>1045.03</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1347.71</t>
+          <t>1056.02</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1369.85</t>
+          <t>1093.75</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1408.63</t>
+          <t>1097.58</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2193.33</t>
+          <t>1768.22</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2138.78</t>
+          <t>1687.81</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1851.07</t>
+          <t>1480.79</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1734.93</t>
+          <t>1375.39</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1348.50</t>
+          <t>1044.79</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1351.77</t>
+          <t>1055.23</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1372.94</t>
+          <t>1092.60</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1412.32</t>
+          <t>1096.10</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2204.96</t>
+          <t>1769.08</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2146.77</t>
+          <t>1689.44</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>1855.22</t>
+          <t>1477.96</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1741.09</t>
+          <t>1373.93</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1356.36</t>
+          <t>1046.64</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1359.46</t>
+          <t>1048.19</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1381.92</t>
+          <t>1092.51</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1418.24</t>
+          <t>1095.40</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2291.37</t>
+          <t>1831.09</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2219.73</t>
+          <t>1751.32</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>1931.04</t>
+          <t>1522.44</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1765.15</t>
+          <t>1384.34</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1412.78</t>
+          <t>1091.99</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1415.28</t>
+          <t>1091.25</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1432.21</t>
+          <t>1134.85</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1433.35</t>
+          <t>1133.55</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2645.95</t>
+          <t>2277.43</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2548.76</t>
+          <t>2170.48</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2350.97</t>
+          <t>1961.95</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2121.79</t>
+          <t>1742.46</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1669.24</t>
+          <t>1326.90</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1680.75</t>
+          <t>1372.42</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1874.02</t>
+          <t>1541.56</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1885.38</t>
+          <t>1552.67</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1948.70</t>
+          <t>1426.18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1895.99</t>
+          <t>1330.40</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1425.10</t>
+          <t>811.01</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1523.25</t>
+          <t>1162.39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1273.43</t>
+          <t>948.07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1268.33</t>
+          <t>950.83</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1340.46</t>
+          <t>1020.62</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1347.18</t>
+          <t>1038.89</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2400.03</t>
+          <t>1843.50</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2318.35</t>
+          <t>1705.68</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2056.43</t>
+          <t>1642.41</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1826.80</t>
+          <t>1386.87</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1440.01</t>
+          <t>1094.54</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1433.50</t>
+          <t>1093.05</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1499.29</t>
+          <t>1170.52</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1501.93</t>
+          <t>1178.35</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2386.20</t>
+          <t>1819.86</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2313.16</t>
+          <t>1686.80</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1993.12</t>
+          <t>1534.76</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1820.60</t>
+          <t>1373.29</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1435.53</t>
+          <t>1088.82</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1427.64</t>
+          <t>1087.30</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1487.62</t>
+          <t>1159.95</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1521.31</t>
+          <t>1162.40</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2387.68</t>
+          <t>1812.51</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2315.19</t>
+          <t>1681.16</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1983.46</t>
+          <t>1516.89</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1824.14</t>
+          <t>1368.93</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1437.93</t>
+          <t>1089.20</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1429.85</t>
+          <t>1087.60</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1486.53</t>
+          <t>1158.66</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1519.15</t>
+          <t>1158.95</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2391.80</t>
+          <t>1808.22</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2318.10</t>
+          <t>1678.36</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1982.66</t>
+          <t>1504.94</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1825.36</t>
+          <t>1368.66</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1441.38</t>
+          <t>1089.33</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1433.23</t>
+          <t>1088.90</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1487.71</t>
+          <t>1159.06</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1520.35</t>
+          <t>1158.47</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2396.00</t>
+          <t>1804.82</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2321.01</t>
+          <t>1676.21</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>1985.19</t>
+          <t>1495.99</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1826.94</t>
+          <t>1364.42</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1444.84</t>
+          <t>1089.08</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1436.68</t>
+          <t>1090.19</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1489.55</t>
+          <t>1159.62</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1522.70</t>
+          <t>1161.27</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2400.60</t>
+          <t>1802.28</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2324.54</t>
+          <t>1674.52</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>1989.00</t>
+          <t>1496.70</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1829.41</t>
+          <t>1365.23</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1448.86</t>
+          <t>1088.36</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1440.73</t>
+          <t>1091.37</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1491.95</t>
+          <t>1159.98</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1525.87</t>
+          <t>1161.36</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2410.74</t>
+          <t>1803.73</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2333.59</t>
+          <t>1676.08</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>1997.26</t>
+          <t>1499.96</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1837.23</t>
+          <t>1361.14</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1458.65</t>
+          <t>1086.95</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1450.54</t>
+          <t>1095.76</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1501.11</t>
+          <t>1162.63</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1533.19</t>
+          <t>1163.64</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2488.64</t>
+          <t>1867.47</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2407.95</t>
+          <t>1736.33</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2069.91</t>
+          <t>1536.15</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>1874.07</t>
+          <t>1379.69</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1527.21</t>
+          <t>1110.86</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1518.88</t>
+          <t>1127.74</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1561.53</t>
+          <t>1184.08</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1556.14</t>
+          <t>1199.13</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2927.99</t>
+          <t>2342.41</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2849.21</t>
+          <t>2157.92</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2506.86</t>
+          <t>1954.47</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2242.69</t>
+          <t>1662.48</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1827.33</t>
+          <t>1250.09</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1828.64</t>
+          <t>1288.26</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2037.03</t>
+          <t>1549.58</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2045.13</t>
+          <t>1573.55</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2032.46</t>
+          <t>1912.29</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1966.80</t>
+          <t>1715.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1352.66</t>
+          <t>960.50</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1577.39</t>
+          <t>1299.17</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1347.07</t>
+          <t>1075.35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1336.83</t>
+          <t>1096.67</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1412.80</t>
+          <t>1238.97</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1436.49</t>
+          <t>1294.74</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2478.45</t>
+          <t>2404.87</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2382.10</t>
+          <t>2167.11</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2152.34</t>
+          <t>1962.58</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1874.24</t>
+          <t>1621.87</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1512.79</t>
+          <t>1236.69</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1501.48</t>
+          <t>1244.31</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1576.07</t>
+          <t>1403.48</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1582.41</t>
+          <t>1421.75</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2458.51</t>
+          <t>2388.80</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2366.95</t>
+          <t>2166.50</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2099.84</t>
+          <t>1922.77</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>1861.49</t>
+          <t>1627.04</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1501.14</t>
+          <t>1253.02</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1490.11</t>
+          <t>1242.59</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1564.67</t>
+          <t>1397.38</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1595.42</t>
+          <t>1394.25</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2458.23</t>
+          <t>2382.92</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2357.50</t>
+          <t>2167.30</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2084.08</t>
+          <t>1913.75</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>1859.27</t>
+          <t>1629.07</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1496.97</t>
+          <t>1353.18</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1485.81</t>
+          <t>1251.00</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1561.72</t>
+          <t>1411.31</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1594.15</t>
+          <t>1392.14</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2460.18</t>
+          <t>2377.58</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2351.70</t>
+          <t>2167.56</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2084.25</t>
+          <t>1913.30</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>1860.76</t>
+          <t>1709.86</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1454.19</t>
+          <t>1347.78</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1444.78</t>
+          <t>1341.09</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1563.23</t>
+          <t>1420.05</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1596.25</t>
+          <t>1406.88</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2462.25</t>
+          <t>2373.84</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2346.97</t>
+          <t>2168.82</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2085.85</t>
+          <t>1911.11</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>1862.29</t>
+          <t>1709.17</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1453.33</t>
+          <t>1346.12</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1448.05</t>
+          <t>1338.29</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1565.02</t>
+          <t>1434.58</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1599.01</t>
+          <t>1418.44</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2461.49</t>
+          <t>2371.66</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2343.18</t>
+          <t>2170.44</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2088.11</t>
+          <t>1910.59</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1864.52</t>
+          <t>1708.66</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1456.95</t>
+          <t>1346.05</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1451.75</t>
+          <t>1337.57</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1567.12</t>
+          <t>1433.15</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1601.90</t>
+          <t>1430.92</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>2468.85</t>
+          <t>2374.57</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2344.64</t>
+          <t>2176.80</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2094.34</t>
+          <t>1913.07</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>1871.57</t>
+          <t>1712.07</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1465.80</t>
+          <t>1351.33</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1460.66</t>
+          <t>1342.60</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1576.92</t>
+          <t>1438.41</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1608.64</t>
+          <t>1434.35</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>2541.49</t>
+          <t>2451.77</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>2414.96</t>
+          <t>2253.65</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2183.92</t>
+          <t>1973.52</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>1906.62</t>
+          <t>1741.59</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1530.81</t>
+          <t>1411.71</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1525.66</t>
+          <t>1402.65</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1632.27</t>
+          <t>1500.89</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1627.41</t>
+          <t>1494.42</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3043.80</t>
+          <t>3006.77</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>2875.04</t>
+          <t>2800.81</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>2695.07</t>
+          <t>2495.36</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>2328.66</t>
+          <t>2094.51</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>1907.65</t>
+          <t>1647.04</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>1899.69</t>
+          <t>1660.63</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2142.74</t>
+          <t>2031.78</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2153.57</t>
+          <t>2036.92</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2052.96</t>
+          <t>2112.91</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1987.51</t>
+          <t>1805.48</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>810.62</t>
+          <t>662.41</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1565.81</t>
+          <t>1428.20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1398.47</t>
+          <t>1124.87</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1389.09</t>
+          <t>1119.09</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1468.54</t>
+          <t>1442.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1532.92</t>
+          <t>1450.40</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2545.52</t>
+          <t>2663.94</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2499.20</t>
+          <t>2286.69</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2192.89</t>
+          <t>2219.93</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1914.81</t>
+          <t>1717.94</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1564.84</t>
+          <t>1382.03</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1554.07</t>
+          <t>1304.47</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1639.69</t>
+          <t>1639.61</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1714.08</t>
+          <t>1638.54</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2524.17</t>
+          <t>2650.83</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2502.39</t>
+          <t>2313.90</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2152.94</t>
+          <t>2182.60</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>1993.29</t>
+          <t>1735.10</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1567.94</t>
+          <t>1373.44</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1555.44</t>
+          <t>1367.53</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1635.80</t>
+          <t>1627.72</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1717.83</t>
+          <t>1623.76</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2521.91</t>
+          <t>2648.84</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2505.61</t>
+          <t>2329.77</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2096.46</t>
+          <t>2169.91</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>1919.99</t>
+          <t>1756.70</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1571.68</t>
+          <t>1382.40</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1558.61</t>
+          <t>1376.66</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1636.75</t>
+          <t>1621.90</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1666.04</t>
+          <t>1614.56</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>2514.52</t>
+          <t>2645.95</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2506.83</t>
+          <t>2345.22</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2103.33</t>
+          <t>2165.78</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>1880.51</t>
+          <t>1769.40</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1568.47</t>
+          <t>1399.11</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1557.82</t>
+          <t>1377.96</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1622.06</t>
+          <t>1621.07</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1652.44</t>
+          <t>1615.55</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>2513.94</t>
+          <t>2642.59</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2508.27</t>
+          <t>2353.08</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2111.69</t>
+          <t>2165.03</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>1864.06</t>
+          <t>1798.62</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1570.83</t>
+          <t>1377.02</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1560.28</t>
+          <t>1368.27</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1623.95</t>
+          <t>1622.14</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1654.82</t>
+          <t>1618.14</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>2512.55</t>
+          <t>2642.97</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2507.88</t>
+          <t>2352.40</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2113.05</t>
+          <t>2168.40</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1928.75</t>
+          <t>1808.68</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1587.39</t>
+          <t>1377.23</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1576.80</t>
+          <t>1366.10</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1640.05</t>
+          <t>1622.72</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1672.02</t>
+          <t>1618.57</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>2518.35</t>
+          <t>2648.02</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2425.02</t>
+          <t>2363.38</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2118.93</t>
+          <t>2178.10</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>1934.49</t>
+          <t>1813.77</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1595.45</t>
+          <t>1383.44</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1584.93</t>
+          <t>1371.81</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1650.26</t>
+          <t>1611.90</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1679.01</t>
+          <t>1607.90</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>2587.80</t>
+          <t>2725.08</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>2488.26</t>
+          <t>2436.90</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2213.47</t>
+          <t>2236.32</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>1911.59</t>
+          <t>1839.64</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>1654.72</t>
+          <t>1446.81</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1644.17</t>
+          <t>1435.11</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>1706.47</t>
+          <t>1655.04</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>1700.06</t>
+          <t>1648.14</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>3139.34</t>
+          <t>3295.29</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>2998.62</t>
+          <t>3006.79</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>2759.33</t>
+          <t>2817.50</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2392.34</t>
+          <t>2277.28</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2032.86</t>
+          <t>1781.89</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2031.32</t>
+          <t>1796.23</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2223.08</t>
+          <t>2286.80</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2233.96</t>
+          <t>2300.57</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2066.08</t>
+          <t>2116.55</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1892.21</t>
+          <t>2012.91</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>634.92</t>
+          <t>508.39</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1491.49</t>
+          <t>1396.73</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1276.28</t>
+          <t>1252.14</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1265.92</t>
+          <t>1251.88</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1478.38</t>
+          <t>1487.53</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1472.45</t>
+          <t>1505.27</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2600.88</t>
+          <t>2587.53</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2322.16</t>
+          <t>2446.80</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2226.62</t>
+          <t>2201.18</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1817.27</t>
+          <t>1723.11</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1452.07</t>
+          <t>1421.29</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1441.04</t>
+          <t>1413.11</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1723.15</t>
+          <t>1682.72</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1708.32</t>
+          <t>1687.92</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2595.08</t>
+          <t>2565.68</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2316.15</t>
+          <t>2445.48</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2090.30</t>
+          <t>2246.72</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1813.47</t>
+          <t>1962.62</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1449.76</t>
+          <t>1349.30</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1438.44</t>
+          <t>1340.52</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1718.52</t>
+          <t>1671.44</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1734.20</t>
+          <t>1663.91</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2592.46</t>
+          <t>2569.59</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2314.04</t>
+          <t>2444.40</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2087.61</t>
+          <t>2215.32</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>1796.25</t>
+          <t>1960.38</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1442.68</t>
+          <t>1565.92</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1431.70</t>
+          <t>1556.04</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1731.25</t>
+          <t>1666.12</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1747.56</t>
+          <t>1653.91</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2590.63</t>
+          <t>2636.36</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2292.52</t>
+          <t>2444.45</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2087.04</t>
+          <t>2205.30</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>1800.19</t>
+          <t>1959.17</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1435.10</t>
+          <t>1565.12</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1424.55</t>
+          <t>1555.50</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1665.48</t>
+          <t>1735.91</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1695.02</t>
+          <t>1726.20</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2492.05</t>
+          <t>2626.44</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2300.89</t>
+          <t>2444.65</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2086.65</t>
+          <t>2147.78</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>1802.63</t>
+          <t>1963.42</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1428.76</t>
+          <t>1565.22</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1418.27</t>
+          <t>1555.17</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1665.16</t>
+          <t>1727.06</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1694.82</t>
+          <t>1721.14</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2492.56</t>
+          <t>2654.99</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2307.57</t>
+          <t>2445.86</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2086.96</t>
+          <t>2228.11</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1804.74</t>
+          <t>1964.33</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1431.39</t>
+          <t>1567.06</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1424.61</t>
+          <t>1556.68</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1665.20</t>
+          <t>1752.92</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1696.07</t>
+          <t>1745.26</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2496.72</t>
+          <t>2653.77</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2318.17</t>
+          <t>2452.15</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2090.35</t>
+          <t>2166.74</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>1811.80</t>
+          <t>1969.35</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1439.38</t>
+          <t>1574.58</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1429.24</t>
+          <t>1564.11</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1673.08</t>
+          <t>1753.99</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1700.99</t>
+          <t>1746.59</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>2560.77</t>
+          <t>2630.60</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2397.33</t>
+          <t>2522.79</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2173.60</t>
+          <t>2228.92</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>1848.66</t>
+          <t>1999.36</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1506.99</t>
+          <t>1639.89</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1496.79</t>
+          <t>1629.36</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1729.83</t>
+          <t>1814.11</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1723.17</t>
+          <t>1803.49</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>3128.15</t>
+          <t>3191.24</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>2965.53</t>
+          <t>2916.55</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>2692.57</t>
+          <t>2719.75</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2249.12</t>
+          <t>2355.19</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2020.12</t>
+          <t>1900.63</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2017.23</t>
+          <t>1932.42</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2303.07</t>
+          <t>2246.22</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2307.43</t>
+          <t>2254.11</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1757.46</t>
+          <t>1413.82</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1725.57</t>
+          <t>1330.40</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>471.63</t>
+          <t>386.21</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1355.74</t>
+          <t>1090.66</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1123.41</t>
+          <t>885.63</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1113.54</t>
+          <t>890.01</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1198.37</t>
+          <t>930.46</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1209.18</t>
+          <t>948.98</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2165.87</t>
+          <t>1805.83</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2116.98</t>
+          <t>1705.68</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1850.83</t>
+          <t>1566.38</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1725.89</t>
+          <t>1375.01</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1336.58</t>
+          <t>1029.88</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1339.56</t>
+          <t>1030.27</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1348.37</t>
+          <t>1084.74</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1356.31</t>
+          <t>1094.86</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2157.94</t>
+          <t>1783.50</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2091.55</t>
+          <t>1686.80</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1810.48</t>
+          <t>1490.73</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1721.62</t>
+          <t>1367.50</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1332.67</t>
+          <t>1025.15</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1336.07</t>
+          <t>1025.68</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1336.85</t>
+          <t>1069.75</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1371.88</t>
+          <t>1079.03</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2157.10</t>
+          <t>1779.05</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2098.21</t>
+          <t>1681.16</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1802.45</t>
+          <t>1476.17</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1726.39</t>
+          <t>1364.80</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1335.72</t>
+          <t>1026.13</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1339.21</t>
+          <t>1026.62</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1336.93</t>
+          <t>1063.87</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1369.29</t>
+          <t>1075.91</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2158.23</t>
+          <t>1775.93</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>2107.52</t>
+          <t>1678.36</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1805.21</t>
+          <t>1474.57</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>1728.94</t>
+          <t>1363.70</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1340.04</t>
+          <t>1027.79</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1343.52</t>
+          <t>1028.22</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1339.29</t>
+          <t>1065.01</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1371.58</t>
+          <t>1075.38</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2159.63</t>
+          <t>1771.54</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2132.91</t>
+          <t>1676.21</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>1810.19</t>
+          <t>1473.10</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>1730.74</t>
+          <t>1364.42</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1344.30</t>
+          <t>1029.21</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1347.71</t>
+          <t>1029.50</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1341.85</t>
+          <t>1066.07</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1374.61</t>
+          <t>1078.11</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2165.24</t>
+          <t>1768.22</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2138.78</t>
+          <t>1674.52</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>1813.84</t>
+          <t>1472.31</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1732.00</t>
+          <t>1365.23</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1348.50</t>
+          <t>1030.21</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1351.77</t>
+          <t>1030.27</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1344.15</t>
+          <t>1066.72</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1377.61</t>
+          <t>1072.41</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>2175.12</t>
+          <t>1769.08</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>2146.77</t>
+          <t>1676.08</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>1818.91</t>
+          <t>1473.70</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>1735.67</t>
+          <t>1361.14</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1356.36</t>
+          <t>1033.76</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1359.46</t>
+          <t>1033.33</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1352.81</t>
+          <t>1069.45</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1383.38</t>
+          <t>1070.40</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>2237.79</t>
+          <t>1812.10</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>2213.16</t>
+          <t>1736.33</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>1894.19</t>
+          <t>1522.44</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>1761.35</t>
+          <t>1379.69</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>1412.78</t>
+          <t>1081.01</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>1415.28</t>
+          <t>1079.06</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1405.37</t>
+          <t>1096.71</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1401.92</t>
+          <t>1113.22</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>2645.95</t>
+          <t>2243.73</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>2548.76</t>
+          <t>2157.92</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>2301.32</t>
+          <t>1946.07</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>2082.09</t>
+          <t>1662.48</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>1669.24</t>
+          <t>1250.09</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>1680.75</t>
+          <t>1288.26</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1842.76</t>
+          <t>1534.63</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1849.45</t>
+          <t>1546.72</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2198.07</t>
+          <t>2205.20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1987.51</t>
+          <t>2106.98</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1581.60</t>
+          <t>960.50</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1577.39</t>
+          <t>1706.70</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1398.47</t>
+          <t>1439.05</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1389.09</t>
+          <t>1433.60</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1533.85</t>
+          <t>1562.00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1563.61</t>
+          <t>1560.54</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2669.59</t>
+          <t>2696.95</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2499.20</t>
+          <t>2557.44</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2249.27</t>
+          <t>2254.87</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1914.81</t>
+          <t>2035.97</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1564.84</t>
+          <t>1553.15</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1554.07</t>
+          <t>1538.82</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1761.09</t>
+          <t>1745.66</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1759.68</t>
+          <t>1737.15</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2653.44</t>
+          <t>2675.45</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2511.71</t>
+          <t>2501.75</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2202.97</t>
+          <t>2246.72</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>1993.29</t>
+          <t>1962.62</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1567.94</t>
+          <t>1571.03</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1555.44</t>
+          <t>1555.18</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1751.09</t>
+          <t>1736.38</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1780.30</t>
+          <t>1727.52</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2644.40</t>
+          <t>2661.21</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2505.61</t>
+          <t>2490.03</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2131.71</t>
+          <t>2215.32</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>1919.99</t>
+          <t>1960.38</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1571.68</t>
+          <t>1594.63</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1558.61</t>
+          <t>1581.30</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1739.27</t>
+          <t>1733.56</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1747.56</t>
+          <t>1724.29</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>2635.40</t>
+          <t>2652.44</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2506.83</t>
+          <t>2511.70</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2103.33</t>
+          <t>2205.30</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>1892.25</t>
+          <t>1959.78</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1568.47</t>
+          <t>1565.80</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1557.82</t>
+          <t>1601.92</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1665.48</t>
+          <t>1735.91</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1695.02</t>
+          <t>1726.20</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>2629.62</t>
+          <t>2649.43</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2508.27</t>
+          <t>2497.81</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2111.69</t>
+          <t>2168.65</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>1887.37</t>
+          <t>1968.07</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1570.83</t>
+          <t>1565.22</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1560.28</t>
+          <t>1555.17</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1665.16</t>
+          <t>1727.06</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1694.82</t>
+          <t>1721.14</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>2625.65</t>
+          <t>2654.99</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2507.88</t>
+          <t>2500.19</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2113.05</t>
+          <t>2228.11</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1928.75</t>
+          <t>1965.04</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1587.39</t>
+          <t>1567.06</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1576.80</t>
+          <t>1556.68</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>1665.20</t>
+          <t>1752.92</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1696.07</t>
+          <t>1745.26</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>2625.08</t>
+          <t>2653.77</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>2425.02</t>
+          <t>2512.31</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2118.93</t>
+          <t>2178.10</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>1934.49</t>
+          <t>1969.35</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1595.45</t>
+          <t>1574.58</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1584.93</t>
+          <t>1564.11</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1673.08</t>
+          <t>1753.99</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1700.99</t>
+          <t>1746.59</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>2688.82</t>
+          <t>2730.10</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>2488.26</t>
+          <t>2590.00</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2213.47</t>
+          <t>2241.05</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>1923.35</t>
+          <t>1999.36</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>1654.72</t>
+          <t>1639.89</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1644.17</t>
+          <t>1629.36</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>1729.83</t>
+          <t>1814.11</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>1723.17</t>
+          <t>1803.49</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>3244.24</t>
+          <t>3295.29</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>2998.62</t>
+          <t>3085.69</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>2759.33</t>
+          <t>2817.50</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>2392.34</t>
+          <t>2410.28</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2032.86</t>
+          <t>1924.18</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2031.32</t>
+          <t>1943.62</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2319.47</t>
+          <t>2301.38</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2314.74</t>
+          <t>2309.86</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
